--- a/java pic.xlsx
+++ b/java pic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/学习/java/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/Projects/pangpang/limingxie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5F8148A8-DF80-6E46-B544-229054126497}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1B7FC690-B9F4-8243-93FD-815210F73590}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="2420" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7260" yWindow="2320" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="java_stack" sheetId="19" r:id="rId1"/>
@@ -43823,8 +43823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B9C6A3-FE38-9B4E-925F-9BD426903FA3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ118" sqref="AJ118"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AP72" sqref="AP72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="15"/>
@@ -43839,8 +43839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCD4574-BEEA-3F41-BDC9-60D368E8ED05}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AP30" sqref="AP30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="15"/>
@@ -43868,17 +43868,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -43889,25 +43889,25 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -43916,7 +43916,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -43934,7 +43934,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -43943,7 +43943,7 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -43952,7 +43952,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/java pic.xlsx
+++ b/java pic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/Projects/pangpang/limingxie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1B7FC690-B9F4-8243-93FD-815210F73590}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{93A8A878-038E-E746-9D7E-BA37C2C32B54}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="2320" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="java_stack" sheetId="19" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="javac" sheetId="30" r:id="rId4"/>
     <sheet name="C" sheetId="28" r:id="rId5"/>
     <sheet name="diet" sheetId="29" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="31" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -42832,6 +42833,2344 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直线连接符 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E416C5-621C-5041-8F8F-DE9345225D8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2222500" y="952500"/>
+          <a:ext cx="1308100" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直线连接符 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AA96DEC-D961-2547-AD20-B52C1026FA90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4940300" y="952500"/>
+          <a:ext cx="1168400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直线连接符 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2783238F-AD13-7042-A133-C9691F884939}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2260600" y="2463800"/>
+          <a:ext cx="1549400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直线箭头连接符 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0B2A785-F971-E64B-8B68-BFF16300D0B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2946400" y="965200"/>
+          <a:ext cx="266700" cy="1511300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直线箭头连接符 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C35E67E-53D6-6249-999B-B95ECE5FA142}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4552950" y="952500"/>
+          <a:ext cx="387350" cy="1504950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直线连接符 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3580D91F-CBFA-BF44-8A56-25E957CC4E95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3568700" y="952500"/>
+          <a:ext cx="1371600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="800219" cy="370230"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="文本框 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42F21A02-AAFD-2C48-A667-563F5AB76E99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1244600" y="800100"/>
+          <a:ext cx="800219" cy="370230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>客户端</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="800219" cy="370230"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="文本框 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781B0658-D60D-AF4F-829B-F0D79592BDEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1244600" y="2286000"/>
+          <a:ext cx="800219" cy="370230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>服务器</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1005403" cy="370230"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="文本框 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{336E0A87-4649-8B41-AE8C-0973483F9F08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771900" y="571500"/>
+          <a:ext cx="1005403" cy="370230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>等待结果</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="595035" cy="370230"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="文本框 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F5C5CD1-A883-7E44-A7B1-53D89678FE2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2971800" y="1612900"/>
+          <a:ext cx="595035" cy="370230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>请求</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="595035" cy="370230"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="文本框 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{186670F3-0343-DD43-A583-90BEE0B6388E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="1612900"/>
+          <a:ext cx="595035" cy="370230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>回应</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直线连接符 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01421496-D75A-2441-BB20-FBE53E682194}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4591050" y="2463800"/>
+          <a:ext cx="1517650" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直线连接符 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB09A463-1F17-214E-8A21-7289B12340BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="2463800"/>
+          <a:ext cx="749300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1826141" cy="648126"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="文本框 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{215F85A6-608F-4140-ACC5-C20275046034}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3276600" y="2514600"/>
+          <a:ext cx="1826141" cy="648126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>执行服务器</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>本地方法返回结果</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="932115" cy="370230"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="文本框 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{700A9AC6-5608-3740-B4F0-429C70CF38BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5575300" y="2489200"/>
+          <a:ext cx="932115" cy="370230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>时间 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>---&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>125556</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="图片 51" descr="图2 TCP的三次握手">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA68D0F0-59D9-FD43-9C6F-F9B70F0F1C06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10134600" y="304799"/>
+          <a:ext cx="5778500" cy="4964257"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>72693</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="图片 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF9268EA-C420-9847-8013-719CCB560EB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635000" y="4711700"/>
+          <a:ext cx="898193" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直线连接符 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20E4B560-9296-614D-872F-BE81CBB7C5C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1892300" y="4559300"/>
+          <a:ext cx="12700" cy="3383280"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直线连接符 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A63C9318-ABB2-8643-815C-B1199E98189F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4254500" y="4559300"/>
+          <a:ext cx="12700" cy="3383280"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>14374</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="图片 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9724DE51-534A-B44D-8104-62E99C9564B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="4546600"/>
+          <a:ext cx="952500" cy="1182774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>77874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="图片 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29D23596-9053-154E-BB11-91776BD5B40C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4826000" y="6324600"/>
+          <a:ext cx="952500" cy="1182774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>34593</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="图片 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24A4FA37-B23D-1847-9CC7-1241C8FE0C77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="596900" y="6527800"/>
+          <a:ext cx="898193" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直线箭头连接符 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B701C307-1669-ED47-9BE6-FF70516D4DBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="5003800"/>
+          <a:ext cx="1422400" cy="825500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="直线箭头连接符 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5CEDA0F-0420-2343-8B23-6ADC61A8CCAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2400300" y="6032500"/>
+          <a:ext cx="1333500" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="直线箭头连接符 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7778FA36-DA10-C64C-A666-3032FAA08ACA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2425700" y="6921500"/>
+          <a:ext cx="1384300" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="511358" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="文本框 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57894D71-BCF4-4D4F-B657-C3CCB255D070}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2832100" y="5181600"/>
+          <a:ext cx="511358" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>SYN</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="908967" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="文本框 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC45157-DBB8-CA4C-96CE-0809456220D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2806700" y="6184900"/>
+          <a:ext cx="908967" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>SYN-ACK</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="519438" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="文本框 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA228C2F-15A3-1543-B964-CAE73096E272}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2908300" y="7162800"/>
+          <a:ext cx="519438" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>ACK</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="902811" cy="335541"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="文本框 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9076A37-ACB3-8741-8D4F-E7BA36596D29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="7797800"/>
+          <a:ext cx="902811" cy="335541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>建立连接</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>134832</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="图片 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60FA78F3-71DF-A34D-AEBA-249F1F130A41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1282700" y="10121900"/>
+          <a:ext cx="2357332" cy="2019300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>27074</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="图片 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34B2156D-5D16-1241-9453-596C84684866}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7137400" y="9321800"/>
+          <a:ext cx="952500" cy="1182774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="493533" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="文本框 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED0178A8-312F-7742-8529-C2FFC3D04716}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7289800" y="10617200"/>
+          <a:ext cx="493533" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>DNS</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>52474</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="图片 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4906F6F8-337F-9D4E-B756-388F816F8F83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048500" y="12014200"/>
+          <a:ext cx="952500" cy="1182774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1066639" cy="335541"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="文本框 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{124A7AC8-87B6-374A-A2E0-C9464FEF6845}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6883400" y="13309600"/>
+          <a:ext cx="1066639" cy="335541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>服务器</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="直线箭头连接符 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1EBF7A9-15E4-704E-91CC-F9087A6451A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4076700" y="10160000"/>
+          <a:ext cx="2590800" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="直线箭头连接符 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F148387-29A0-D149-A1B3-D5C81C737484}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4152900" y="10566400"/>
+          <a:ext cx="2527300" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="直线箭头连接符 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7F2096C-46D0-0C4B-8A89-4BA66B39BF74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4406900" y="11785600"/>
+          <a:ext cx="2133600" cy="1041400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="直线箭头连接符 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1020AFEA-F95A-DF46-9DC9-FE96525838E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4216400" y="12141200"/>
+          <a:ext cx="2082800" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="800219" cy="300723"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="文本框 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D22378CF-B530-2445-893D-71AB261A5B08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4978400" y="9918700"/>
+          <a:ext cx="800219" cy="300723"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>域名查询</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="610745" cy="300723"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="文本框 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B44C53C0-61F1-AA41-AC3A-01073A57A8D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5295900" y="10871200"/>
+          <a:ext cx="610745" cy="300723"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>获取</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="757259" cy="300723"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="文本框 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7FA50C3-5C42-3F43-9B64-BF8C261F01BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="12001500"/>
+          <a:ext cx="757259" cy="300723"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>http</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>请求</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="757259" cy="300723"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="文本框 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{334B5B48-8E9E-2045-813C-050D099BEAAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4724400" y="12801600"/>
+          <a:ext cx="757259" cy="300723"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>http</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>响应</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -43116,7 +45455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5FFFF2-FFC0-F544-AF36-4DC147768BF9}">
   <dimension ref="C1:Z52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A41" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
@@ -43420,7 +45759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BAF9AF-ACC1-EC41-890D-538B5AD38D0F}">
   <dimension ref="H17:AN58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A23" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="AA64" sqref="AA64"/>
     </sheetView>
   </sheetViews>
@@ -43554,7 +45893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20838878-1577-584E-AE75-E05E723869CA}">
   <dimension ref="AH3:BE242"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V68" sqref="V68"/>
     </sheetView>
   </sheetViews>
@@ -43823,7 +46162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B9C6A3-FE38-9B4E-925F-9BD426903FA3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AP72" sqref="AP72"/>
     </sheetView>
   </sheetViews>
@@ -43839,7 +46178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCD4574-BEEA-3F41-BDC9-60D368E8ED05}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="AP30" sqref="AP30"/>
     </sheetView>
   </sheetViews>
@@ -43855,8 +46194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9322C690-C177-CC4D-A0C3-C7CD8C98272B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="AB28" sqref="AB28"/>
+    <sheetView showGridLines="0" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="AA74" sqref="AA74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="15"/>
@@ -43867,28 +46206,23 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958C2DB6-F91C-F34E-A9BB-27E8AFC47240}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL69" sqref="AL69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -43896,17 +46230,74 @@
 </settings>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <listFile/>
 </mergeFile>
 </file>
 
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -43915,47 +46306,11 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/java pic.xlsx
+++ b/java pic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/Projects/pangpang/limingxie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{93A8A878-038E-E746-9D7E-BA37C2C32B54}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{548EDEFA-CB55-A247-9B02-165413610244}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44917,10 +44917,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="800219" cy="300723"/>
     <xdr:sp macro="" textlink="">
@@ -44936,7 +44936,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4978400" y="9918700"/>
+          <a:off x="4851400" y="10147300"/>
           <a:ext cx="800219" cy="300723"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -44978,9 +44978,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="610745" cy="300723"/>
     <xdr:sp macro="" textlink="">
@@ -44996,7 +44996,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5295900" y="10871200"/>
+          <a:off x="5308600" y="10655300"/>
           <a:ext cx="610745" cy="300723"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -45042,12 +45042,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="757259" cy="300723"/>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1065035" cy="300723"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="99" name="文本框 98">
@@ -45061,8 +45061,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5524500" y="12001500"/>
-          <a:ext cx="757259" cy="300723"/>
+          <a:off x="3962400" y="11569700"/>
+          <a:ext cx="1065035" cy="300723"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -45092,6 +45092,10 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>生成</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
             <a:t>http</a:t>
           </a:r>
@@ -45106,12 +45110,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="757259" cy="300723"/>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>29477</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1065035" cy="300723"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="101" name="文本框 100">
@@ -45125,8 +45129,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4724400" y="12801600"/>
-          <a:ext cx="757259" cy="300723"/>
+          <a:off x="5816600" y="13173977"/>
+          <a:ext cx="1065035" cy="300723"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -45156,6 +45160,10 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>生成</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
             <a:t>http</a:t>
           </a:r>
@@ -45168,6 +45176,624 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="906787" cy="300723"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="文本框 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0CFB6A5-375A-034C-BF9B-2AF370793055}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4864100" y="12306300"/>
+          <a:ext cx="906787" cy="300723"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>TCP/IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>协议</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="800219" cy="300723"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="文本框 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6897B52-B039-D546-8449-006BA3EC27AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5981700" y="12179300"/>
+          <a:ext cx="800219" cy="300723"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>传输请求</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>156477</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="800219" cy="300723"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="文本框 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C01871D-3098-7D48-83E8-C7EBC538D329}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3670300" y="12348477"/>
+          <a:ext cx="800219" cy="300723"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>传输响应</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="椭圆 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F88FD0E-B86D-5547-A1E3-D0AE91300786}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1358900" y="14770100"/>
+          <a:ext cx="7861300" cy="5638800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="椭圆 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{116F6BD9-1210-D74B-94D0-9058011F547A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2413000" y="16154400"/>
+          <a:ext cx="3327400" cy="2870200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="椭圆 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1181523-01B0-BA4F-B577-AC1624769D56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029200" y="16154400"/>
+          <a:ext cx="3327400" cy="2870200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="921599" cy="718466"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="文本框 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF1B659-32EA-1748-AB7B-2891E62B9648}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4838700" y="15074900"/>
+          <a:ext cx="921599" cy="718466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="4000"/>
+            <a:t>URI</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="4000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1007968" cy="718466"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="文本框 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E81E9935-B2B3-CE45-8AB3-070849E6C9CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6337300" y="17259300"/>
+          <a:ext cx="1007968" cy="718466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="4000"/>
+            <a:t>URL</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="4000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1123449" cy="718466"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="文本框 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7CD1C62-EEFE-7A45-BDE1-98CD68FCD98F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3340100" y="17208500"/>
+          <a:ext cx="1123449" cy="718466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="4000"/>
+            <a:t>URN</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="4000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="111" name="图片 110" descr="preview">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C20069C7-2CF1-7F4A-B231-B384BC9E4F29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21170900"/>
+          <a:ext cx="13512800" cy="5207000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -46208,14 +46834,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958C2DB6-F91C-F34E-A9BB-27E8AFC47240}">
-  <dimension ref="A1"/>
+  <dimension ref="AS64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL69" sqref="AL69"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z142" sqref="Z142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="64" spans="45:45">
+      <c r="AS64" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/java pic.xlsx
+++ b/java pic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/Projects/pangpang/limingxie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{548EDEFA-CB55-A247-9B02-165413610244}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{25A8C40F-ED65-2145-B60A-4FD3AFFE0745}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46837,7 +46837,7 @@
   <dimension ref="AS64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z142" sqref="Z142"/>
+      <selection activeCell="AK145" sqref="AK145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="15"/>

--- a/java pic.xlsx
+++ b/java pic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/Projects/pangpang/limingxie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\blog\limingxie-blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{25A8C40F-ED65-2145-B60A-4FD3AFFE0745}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055C3DB6-370E-485D-8E60-B4072FE7FFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="java_stack" sheetId="19" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="C" sheetId="28" r:id="rId5"/>
     <sheet name="diet" sheetId="29" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="31" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="32" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -364,7 +365,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,6 +498,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -782,8 +790,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4660900" y="8915400"/>
-          <a:ext cx="543739" cy="546100"/>
+          <a:off x="4361180" y="7195820"/>
+          <a:ext cx="454839" cy="508000"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -906,8 +914,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4254500" y="8915400"/>
-          <a:ext cx="531039" cy="546100"/>
+          <a:off x="3959860" y="7195820"/>
+          <a:ext cx="485319" cy="508000"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -1226,8 +1234,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4660900" y="10223500"/>
-          <a:ext cx="543739" cy="558800"/>
+          <a:off x="4361180" y="8453120"/>
+          <a:ext cx="454839" cy="508000"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -1350,8 +1358,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3797300" y="10223500"/>
-          <a:ext cx="531039" cy="558800"/>
+          <a:off x="3563620" y="8453120"/>
+          <a:ext cx="472619" cy="508000"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -1731,8 +1739,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4660900" y="11531600"/>
-          <a:ext cx="543739" cy="558800"/>
+          <a:off x="4361180" y="9710420"/>
+          <a:ext cx="454839" cy="508000"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -1855,8 +1863,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3365500" y="11531600"/>
-          <a:ext cx="505639" cy="558800"/>
+          <a:off x="3169920" y="9710420"/>
+          <a:ext cx="457379" cy="508000"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -2368,8 +2376,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4660900" y="12839700"/>
-          <a:ext cx="543739" cy="558800"/>
+          <a:off x="4361180" y="10967720"/>
+          <a:ext cx="454839" cy="508000"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -2492,8 +2500,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3797300" y="12839700"/>
-          <a:ext cx="531039" cy="558800"/>
+          <a:off x="3563620" y="10967720"/>
+          <a:ext cx="472619" cy="508000"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -2619,8 +2627,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4660900" y="14147800"/>
-          <a:ext cx="543739" cy="546100"/>
+          <a:off x="4361180" y="12225020"/>
+          <a:ext cx="454839" cy="508000"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -2743,8 +2751,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4254500" y="14147800"/>
-          <a:ext cx="531039" cy="546100"/>
+          <a:off x="3962400" y="12225020"/>
+          <a:ext cx="482779" cy="508000"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -5892,8 +5900,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10972800" y="17284700"/>
-          <a:ext cx="543739" cy="546100"/>
+          <a:off x="10353040" y="15173960"/>
+          <a:ext cx="543739" cy="500380"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -6016,8 +6024,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3517900" y="11684000"/>
-          <a:ext cx="505639" cy="558800"/>
+          <a:off x="3322320" y="9862820"/>
+          <a:ext cx="457379" cy="508000"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -6143,8 +6151,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12458700" y="17284700"/>
-          <a:ext cx="531039" cy="558800"/>
+          <a:off x="11805920" y="15173960"/>
+          <a:ext cx="498019" cy="513080"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -6680,8 +6688,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7100711" y="2806700"/>
-          <a:ext cx="543739" cy="431800"/>
+          <a:off x="6646051" y="2250440"/>
+          <a:ext cx="510719" cy="370840"/>
           <a:chOff x="1957211" y="3086100"/>
           <a:chExt cx="543739" cy="431800"/>
         </a:xfrm>
@@ -7214,8 +7222,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7100711" y="3733800"/>
-          <a:ext cx="543739" cy="444489"/>
+          <a:off x="6646051" y="3025140"/>
+          <a:ext cx="510719" cy="386069"/>
           <a:chOff x="1957211" y="3873500"/>
           <a:chExt cx="543739" cy="431789"/>
         </a:xfrm>
@@ -7338,8 +7346,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16994011" y="2806700"/>
-          <a:ext cx="543739" cy="431800"/>
+          <a:off x="16143111" y="2250440"/>
+          <a:ext cx="510719" cy="370840"/>
           <a:chOff x="1957211" y="3086100"/>
           <a:chExt cx="543739" cy="431800"/>
         </a:xfrm>
@@ -7462,8 +7470,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16994011" y="3733800"/>
-          <a:ext cx="543739" cy="444489"/>
+          <a:off x="16143111" y="3025140"/>
+          <a:ext cx="510719" cy="386069"/>
           <a:chOff x="1957211" y="3873500"/>
           <a:chExt cx="543739" cy="431789"/>
         </a:xfrm>
@@ -7586,8 +7594,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9577211" y="2552700"/>
-          <a:ext cx="543739" cy="431800"/>
+          <a:off x="9023491" y="2026920"/>
+          <a:ext cx="510719" cy="386080"/>
           <a:chOff x="1957211" y="3086100"/>
           <a:chExt cx="543739" cy="431800"/>
         </a:xfrm>
@@ -7710,8 +7718,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9577211" y="3733800"/>
-          <a:ext cx="543739" cy="444489"/>
+          <a:off x="9023491" y="3025140"/>
+          <a:ext cx="510719" cy="386069"/>
           <a:chOff x="1957211" y="3873500"/>
           <a:chExt cx="543739" cy="431789"/>
         </a:xfrm>
@@ -7834,8 +7842,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12053711" y="2235200"/>
-          <a:ext cx="543739" cy="431800"/>
+          <a:off x="11400931" y="1767840"/>
+          <a:ext cx="510719" cy="373380"/>
           <a:chOff x="1957211" y="3086100"/>
           <a:chExt cx="543739" cy="431800"/>
         </a:xfrm>
@@ -7958,8 +7966,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12053711" y="3733800"/>
-          <a:ext cx="543739" cy="444489"/>
+          <a:off x="11400931" y="3025140"/>
+          <a:ext cx="510719" cy="386069"/>
           <a:chOff x="1957211" y="3873500"/>
           <a:chExt cx="543739" cy="431789"/>
         </a:xfrm>
@@ -8082,8 +8090,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14530211" y="2552700"/>
-          <a:ext cx="543739" cy="431800"/>
+          <a:off x="13778371" y="2026920"/>
+          <a:ext cx="510719" cy="386080"/>
           <a:chOff x="1957211" y="3086100"/>
           <a:chExt cx="543739" cy="431800"/>
         </a:xfrm>
@@ -8206,8 +8214,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14530211" y="3733800"/>
-          <a:ext cx="543739" cy="444489"/>
+          <a:off x="13778371" y="3025140"/>
+          <a:ext cx="510719" cy="386069"/>
           <a:chOff x="1957211" y="3873500"/>
           <a:chExt cx="543739" cy="431789"/>
         </a:xfrm>
@@ -28705,8 +28713,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="876300" y="26543000"/>
-          <a:ext cx="13500100" cy="2273300"/>
+          <a:off x="777240" y="26281380"/>
+          <a:ext cx="11981180" cy="2250440"/>
           <a:chOff x="876300" y="26543000"/>
           <a:chExt cx="13500100" cy="2273300"/>
         </a:xfrm>
@@ -32843,8 +32851,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8991600" y="44230367"/>
-          <a:ext cx="2171700" cy="399511"/>
+          <a:off x="8001000" y="43790947"/>
+          <a:ext cx="1907540" cy="396971"/>
           <a:chOff x="8953500" y="18089234"/>
           <a:chExt cx="2171700" cy="304799"/>
         </a:xfrm>
@@ -35396,8 +35404,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4165600" y="22288500"/>
-          <a:ext cx="3810000" cy="3505200"/>
+          <a:off x="3703320" y="22070060"/>
+          <a:ext cx="3380740" cy="3469640"/>
           <a:chOff x="4025900" y="23088600"/>
           <a:chExt cx="3810000" cy="1968500"/>
         </a:xfrm>
@@ -35993,8 +36001,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8623300" y="22288500"/>
-          <a:ext cx="5715000" cy="3505200"/>
+          <a:off x="7665720" y="22070060"/>
+          <a:ext cx="5054600" cy="3469640"/>
           <a:chOff x="13817600" y="18554700"/>
           <a:chExt cx="5715000" cy="2959100"/>
         </a:xfrm>
@@ -45736,13 +45744,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>22860</xdr:colOff>
       <xdr:row>111</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>99060</xdr:colOff>
       <xdr:row>138</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
@@ -45774,8 +45782,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="21170900"/>
-          <a:ext cx="13512800" cy="5207000"/>
+          <a:off x="22860" y="19479260"/>
+          <a:ext cx="11993880" cy="4795520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -46085,23 +46093,23 @@
       <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="4" max="9" width="5.83203125" customWidth="1"/>
+    <col min="4" max="9" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="13:25" s="5" customFormat="1" ht="22"/>
-    <row r="2" spans="13:25" s="5" customFormat="1" ht="22"/>
-    <row r="3" spans="13:25" s="5" customFormat="1" ht="22"/>
-    <row r="4" spans="13:25" s="5" customFormat="1" ht="22"/>
-    <row r="5" spans="13:25" s="5" customFormat="1" ht="22"/>
-    <row r="6" spans="13:25" s="5" customFormat="1" ht="22">
+    <row r="1" spans="13:25" s="5" customFormat="1" ht="17.399999999999999"/>
+    <row r="2" spans="13:25" s="5" customFormat="1" ht="17.399999999999999"/>
+    <row r="3" spans="13:25" s="5" customFormat="1" ht="17.399999999999999"/>
+    <row r="4" spans="13:25" s="5" customFormat="1" ht="17.399999999999999"/>
+    <row r="5" spans="13:25" s="5" customFormat="1" ht="17.399999999999999"/>
+    <row r="6" spans="13:25" s="5" customFormat="1" ht="17.399999999999999">
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
     </row>
-    <row r="7" spans="13:25" s="5" customFormat="1" ht="22">
+    <row r="7" spans="13:25" s="5" customFormat="1" ht="17.399999999999999">
       <c r="M7" s="6"/>
       <c r="N7" s="4"/>
       <c r="P7" s="6"/>
@@ -46112,7 +46120,7 @@
       <c r="W7" s="4"/>
       <c r="Y7" s="6"/>
     </row>
-    <row r="8" spans="13:25" s="5" customFormat="1" ht="22">
+    <row r="8" spans="13:25" s="5" customFormat="1" ht="17.399999999999999">
       <c r="M8" s="6"/>
       <c r="N8" s="4"/>
       <c r="P8" s="6"/>
@@ -46123,7 +46131,7 @@
       <c r="W8" s="4"/>
       <c r="Y8" s="6"/>
     </row>
-    <row r="9" spans="13:25" s="5" customFormat="1" ht="22">
+    <row r="9" spans="13:25" s="5" customFormat="1" ht="17.399999999999999">
       <c r="M9" s="6"/>
       <c r="N9" s="4"/>
       <c r="P9" s="6"/>
@@ -46134,7 +46142,7 @@
       <c r="W9" s="4"/>
       <c r="Y9" s="6"/>
     </row>
-    <row r="10" spans="13:25" s="5" customFormat="1" ht="24">
+    <row r="10" spans="13:25" s="5" customFormat="1" ht="20.399999999999999">
       <c r="M10" s="6"/>
       <c r="N10" s="4"/>
       <c r="P10" s="6"/>
@@ -46147,7 +46155,7 @@
       <c r="W10" s="4"/>
       <c r="Y10" s="6"/>
     </row>
-    <row r="11" spans="13:25" s="5" customFormat="1" ht="24">
+    <row r="11" spans="13:25" s="5" customFormat="1" ht="20.399999999999999">
       <c r="M11" s="6"/>
       <c r="N11" s="4"/>
       <c r="P11" s="8">
@@ -46164,7 +46172,7 @@
       <c r="W11" s="4"/>
       <c r="Y11" s="6"/>
     </row>
-    <row r="12" spans="13:25" s="5" customFormat="1" ht="24">
+    <row r="12" spans="13:25" s="5" customFormat="1" ht="20.399999999999999">
       <c r="M12" s="7">
         <v>2</v>
       </c>
@@ -46185,7 +46193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="13:25" s="5" customFormat="1" ht="24">
+    <row r="13" spans="13:25" s="5" customFormat="1" ht="20.399999999999999">
       <c r="M13" s="7">
         <v>11</v>
       </c>
@@ -46206,13 +46214,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="13:25" s="5" customFormat="1" ht="22">
+    <row r="14" spans="13:25" s="5" customFormat="1" ht="17.399999999999999">
       <c r="N14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="T14" s="4"/>
       <c r="W14" s="4"/>
     </row>
-    <row r="15" spans="13:25" s="5" customFormat="1" ht="24">
+    <row r="15" spans="13:25" s="5" customFormat="1" ht="20.399999999999999">
       <c r="M15" s="9" t="s">
         <v>0</v>
       </c>
@@ -46234,45 +46242,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="13:25" s="5" customFormat="1" ht="22">
+    <row r="16" spans="13:25" s="5" customFormat="1" ht="17.399999999999999">
       <c r="N16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="T16" s="4"/>
       <c r="W16" s="4"/>
     </row>
-    <row r="17" spans="11:26" s="5" customFormat="1" ht="22">
+    <row r="17" spans="11:26" s="5" customFormat="1" ht="17.399999999999999">
       <c r="T17" s="4"/>
       <c r="W17" s="4"/>
     </row>
-    <row r="18" spans="11:26" s="5" customFormat="1" ht="22">
+    <row r="18" spans="11:26" s="5" customFormat="1" ht="17.399999999999999">
       <c r="T18" s="4"/>
       <c r="W18" s="4"/>
     </row>
-    <row r="19" spans="11:26" s="5" customFormat="1" ht="22">
+    <row r="19" spans="11:26" s="5" customFormat="1" ht="17.399999999999999">
       <c r="T19" s="4"/>
       <c r="W19" s="4"/>
     </row>
-    <row r="20" spans="11:26" s="5" customFormat="1" ht="22">
+    <row r="20" spans="11:26" s="5" customFormat="1" ht="17.399999999999999">
       <c r="T20" s="4"/>
       <c r="W20" s="4"/>
     </row>
-    <row r="21" spans="11:26" s="5" customFormat="1" ht="22">
+    <row r="21" spans="11:26" s="5" customFormat="1" ht="17.399999999999999">
       <c r="T21" s="4"/>
       <c r="W21" s="4"/>
     </row>
-    <row r="22" spans="11:26" s="5" customFormat="1" ht="22">
+    <row r="22" spans="11:26" s="5" customFormat="1" ht="17.399999999999999">
       <c r="T22" s="4"/>
     </row>
-    <row r="23" spans="11:26" s="5" customFormat="1" ht="22">
+    <row r="23" spans="11:26" s="5" customFormat="1" ht="17.399999999999999">
       <c r="T23" s="4"/>
     </row>
-    <row r="24" spans="11:26" s="5" customFormat="1" ht="22"/>
-    <row r="25" spans="11:26" s="5" customFormat="1" ht="22"/>
-    <row r="26" spans="11:26" s="5" customFormat="1" ht="22"/>
-    <row r="27" spans="11:26" s="5" customFormat="1" ht="22"/>
-    <row r="28" spans="11:26" s="5" customFormat="1" ht="22"/>
-    <row r="29" spans="11:26" s="5" customFormat="1" ht="22"/>
-    <row r="30" spans="11:26" ht="22">
+    <row r="24" spans="11:26" s="5" customFormat="1" ht="17.399999999999999"/>
+    <row r="25" spans="11:26" s="5" customFormat="1" ht="17.399999999999999"/>
+    <row r="26" spans="11:26" s="5" customFormat="1" ht="17.399999999999999"/>
+    <row r="27" spans="11:26" s="5" customFormat="1" ht="17.399999999999999"/>
+    <row r="28" spans="11:26" s="5" customFormat="1" ht="17.399999999999999"/>
+    <row r="29" spans="11:26" s="5" customFormat="1" ht="17.399999999999999"/>
+    <row r="30" spans="11:26" ht="17.399999999999999">
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
@@ -46290,7 +46298,7 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
     </row>
-    <row r="35" spans="3:10" ht="16" thickBot="1"/>
+    <row r="35" spans="3:10" ht="14.4" thickBot="1"/>
     <row r="36" spans="3:10" ht="57" customHeight="1" thickBot="1">
       <c r="C36" s="3"/>
       <c r="D36" s="10"/>
@@ -46305,7 +46313,7 @@
       </c>
       <c r="J36" s="3"/>
     </row>
-    <row r="39" spans="3:10" ht="16" thickBot="1"/>
+    <row r="39" spans="3:10" ht="14.4" thickBot="1"/>
     <row r="40" spans="3:10" ht="57" customHeight="1" thickBot="1">
       <c r="C40" s="3"/>
       <c r="D40" s="10"/>
@@ -46322,7 +46330,7 @@
       </c>
       <c r="J40" s="3"/>
     </row>
-    <row r="43" spans="3:10" ht="16" thickBot="1"/>
+    <row r="43" spans="3:10" ht="14.4" thickBot="1"/>
     <row r="44" spans="3:10" ht="57" customHeight="1" thickBot="1">
       <c r="C44" s="3"/>
       <c r="D44" s="10"/>
@@ -46341,7 +46349,7 @@
       </c>
       <c r="J44" s="3"/>
     </row>
-    <row r="47" spans="3:10" ht="16" thickBot="1"/>
+    <row r="47" spans="3:10" ht="14.4" thickBot="1"/>
     <row r="48" spans="3:10" ht="57" customHeight="1" thickBot="1">
       <c r="C48" s="3"/>
       <c r="D48" s="10"/>
@@ -46358,7 +46366,7 @@
       </c>
       <c r="J48" s="3"/>
     </row>
-    <row r="51" spans="3:10" ht="16" thickBot="1"/>
+    <row r="51" spans="3:10" ht="14.4" thickBot="1"/>
     <row r="52" spans="3:10" ht="57" customHeight="1" thickBot="1">
       <c r="C52" s="3"/>
       <c r="D52" s="10"/>
@@ -46389,7 +46397,7 @@
       <selection activeCell="AA64" sqref="AA64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="17" spans="8:32">
       <c r="AF17" s="2"/>
@@ -46450,7 +46458,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="8:32" ht="26" customHeight="1">
+    <row r="21" spans="8:32" ht="25.95" customHeight="1">
       <c r="H21" s="2" t="s">
         <v>4</v>
       </c>
@@ -46523,94 +46531,94 @@
       <selection activeCell="V68" sqref="V68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="19.95" customHeight="1"/>
   <sheetData>
-    <row r="3" spans="53:54" ht="20" customHeight="1">
+    <row r="3" spans="53:54" ht="19.95" customHeight="1">
       <c r="BA3" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="53:54" ht="20" customHeight="1">
+    <row r="4" spans="53:54" ht="19.95" customHeight="1">
       <c r="BB4" s="18"/>
     </row>
-    <row r="5" spans="53:54" ht="20" customHeight="1">
+    <row r="5" spans="53:54" ht="19.95" customHeight="1">
       <c r="BB5" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="53:53" ht="20" customHeight="1">
+    <row r="31" spans="53:53" ht="19.95" customHeight="1">
       <c r="BA31" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="53:53" ht="20" customHeight="1">
+    <row r="32" spans="53:53" ht="19.95" customHeight="1">
       <c r="BA32" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="53:54" ht="20" customHeight="1">
+    <row r="33" spans="53:54" ht="19.95" customHeight="1">
       <c r="BA33" s="18"/>
     </row>
-    <row r="34" spans="53:54" ht="20" customHeight="1">
+    <row r="34" spans="53:54" ht="19.95" customHeight="1">
       <c r="BA34" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="53:54" ht="20" customHeight="1">
+    <row r="44" spans="53:54" ht="19.95" customHeight="1">
       <c r="BB44" s="18"/>
     </row>
-    <row r="45" spans="53:54" ht="20" customHeight="1">
+    <row r="45" spans="53:54" ht="19.95" customHeight="1">
       <c r="BB45" s="18"/>
     </row>
-    <row r="46" spans="53:54" ht="20" customHeight="1">
+    <row r="46" spans="53:54" ht="19.95" customHeight="1">
       <c r="BB46" s="19"/>
     </row>
-    <row r="64" spans="34:34" ht="20" customHeight="1">
+    <row r="64" spans="34:34" ht="19.95" customHeight="1">
       <c r="AH64" s="2"/>
     </row>
     <row r="81" ht="21" customHeight="1"/>
-    <row r="104" spans="53:53" ht="20" customHeight="1">
+    <row r="104" spans="53:53" ht="19.95" customHeight="1">
       <c r="BA104" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="53:53" ht="20" customHeight="1">
+    <row r="105" spans="53:53" ht="19.95" customHeight="1">
       <c r="BA105" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="53:53" ht="20" customHeight="1">
+    <row r="106" spans="53:53" ht="19.95" customHeight="1">
       <c r="BA106" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="53:53" ht="20" customHeight="1">
+    <row r="108" spans="53:53" ht="19.95" customHeight="1">
       <c r="BA108" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="57:57" ht="20" customHeight="1">
+    <row r="118" spans="57:57" ht="19.95" customHeight="1">
       <c r="BE118" s="18"/>
     </row>
-    <row r="162" spans="53:57" ht="20" customHeight="1">
+    <row r="162" spans="53:57" ht="19.95" customHeight="1">
       <c r="BA162" s="18"/>
     </row>
-    <row r="163" spans="53:57" ht="20" customHeight="1">
+    <row r="163" spans="53:57" ht="19.95" customHeight="1">
       <c r="BA163" s="18"/>
     </row>
-    <row r="164" spans="53:57" ht="20" customHeight="1">
+    <row r="164" spans="53:57" ht="19.95" customHeight="1">
       <c r="BA164" s="18"/>
     </row>
-    <row r="176" spans="53:57" ht="20" customHeight="1">
+    <row r="176" spans="53:57" ht="19.95" customHeight="1">
       <c r="BE176" s="18"/>
     </row>
-    <row r="177" spans="53:57" ht="20" customHeight="1">
+    <row r="177" spans="53:57" ht="19.95" customHeight="1">
       <c r="BE177" s="18"/>
     </row>
-    <row r="178" spans="53:57" ht="20" customHeight="1">
+    <row r="178" spans="53:57" ht="19.95" customHeight="1">
       <c r="BE178" s="19"/>
     </row>
-    <row r="191" spans="53:57" ht="20" customHeight="1">
+    <row r="191" spans="53:57" ht="19.95" customHeight="1">
       <c r="BA191" s="20" t="s">
         <v>14</v>
       </c>
@@ -46627,7 +46635,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="53:57" ht="20" customHeight="1">
+    <row r="192" spans="53:57" ht="19.95" customHeight="1">
       <c r="BA192" s="24" t="s">
         <v>19</v>
       </c>
@@ -46644,7 +46652,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="193" spans="53:57" ht="20" customHeight="1">
+    <row r="193" spans="53:57" ht="19.95" customHeight="1">
       <c r="BA193" s="24"/>
       <c r="BB193" s="18" t="s">
         <v>21</v>
@@ -46653,7 +46661,7 @@
       <c r="BD193" s="25"/>
       <c r="BE193" s="25"/>
     </row>
-    <row r="194" spans="53:57" ht="20" customHeight="1">
+    <row r="194" spans="53:57" ht="19.95" customHeight="1">
       <c r="BA194" s="20" t="s">
         <v>25</v>
       </c>
@@ -46670,7 +46678,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="53:57" ht="20" customHeight="1">
+    <row r="195" spans="53:57" ht="19.95" customHeight="1">
       <c r="BA195" s="20" t="s">
         <v>29</v>
       </c>
@@ -46687,7 +46695,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="196" spans="53:57" ht="20" customHeight="1">
+    <row r="196" spans="53:57" ht="19.95" customHeight="1">
       <c r="BA196" s="22" t="s">
         <v>34</v>
       </c>
@@ -46700,7 +46708,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="197" spans="53:57" ht="20" customHeight="1">
+    <row r="197" spans="53:57" ht="19.95" customHeight="1">
       <c r="BA197" s="26" t="s">
         <v>36</v>
       </c>
@@ -46717,7 +46725,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="198" spans="53:57" ht="20" customHeight="1">
+    <row r="198" spans="53:57" ht="19.95" customHeight="1">
       <c r="BA198" s="26"/>
       <c r="BB198" s="18" t="s">
         <v>38</v>
@@ -46726,39 +46734,39 @@
       <c r="BD198" s="25"/>
       <c r="BE198" s="27"/>
     </row>
-    <row r="234" spans="53:53" ht="20" customHeight="1">
+    <row r="234" spans="53:53" ht="19.95" customHeight="1">
       <c r="BA234" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="235" spans="53:53" ht="20" customHeight="1">
+    <row r="235" spans="53:53" ht="19.95" customHeight="1">
       <c r="BA235" s="23"/>
     </row>
-    <row r="236" spans="53:53" ht="20" customHeight="1">
+    <row r="236" spans="53:53" ht="19.95" customHeight="1">
       <c r="BA236" s="23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="237" spans="53:53" ht="20" customHeight="1">
+    <row r="237" spans="53:53" ht="19.95" customHeight="1">
       <c r="BA237" s="23"/>
     </row>
-    <row r="238" spans="53:53" ht="20" customHeight="1">
+    <row r="238" spans="53:53" ht="19.95" customHeight="1">
       <c r="BA238" s="23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="239" spans="53:53" ht="20" customHeight="1">
+    <row r="239" spans="53:53" ht="19.95" customHeight="1">
       <c r="BA239" s="23"/>
     </row>
-    <row r="240" spans="53:53" ht="20" customHeight="1">
+    <row r="240" spans="53:53" ht="19.95" customHeight="1">
       <c r="BA240" s="23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="241" spans="53:53" ht="20" customHeight="1">
+    <row r="241" spans="53:53" ht="19.95" customHeight="1">
       <c r="BA241" s="23"/>
     </row>
-    <row r="242" spans="53:53" ht="20" customHeight="1">
+    <row r="242" spans="53:53" ht="19.95" customHeight="1">
       <c r="BA242" s="23" t="s">
         <v>45</v>
       </c>
@@ -46792,7 +46800,7 @@
       <selection activeCell="AP72" sqref="AP72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="13.8"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46808,7 +46816,7 @@
       <selection activeCell="AP30" sqref="AP30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="13.8"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46824,7 +46832,7 @@
       <selection activeCell="AA74" sqref="AA74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="4" defaultRowHeight="13.8"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46836,11 +46844,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958C2DB6-F91C-F34E-A9BB-27E8AFC47240}">
   <dimension ref="AS64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK145" sqref="AK145"/>
+    <sheetView showGridLines="0" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK108" sqref="AK108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="64" spans="45:45">
       <c r="AS64" s="2"/>
@@ -46848,16 +46856,31 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B6966C-2BA2-401D-8B8A-8B0118F92A46}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="13.8"/>
+  <sheetData/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46868,16 +46891,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46888,11 +46910,13 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -46910,7 +46934,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -46919,7 +46943,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -46937,7 +46961,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/java pic.xlsx
+++ b/java pic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\blog\limingxie-blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055C3DB6-370E-485D-8E60-B4072FE7FFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B7A721-5FEF-4D60-A416-9BCF75896F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="C" sheetId="28" r:id="rId5"/>
     <sheet name="diet" sheetId="29" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="31" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="32" r:id="rId8"/>
+    <sheet name="test" sheetId="32" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -45805,6 +45805,849 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>179070</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>179070</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>83821</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="圆角矩形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D579C385-2C84-4A88-B85E-BFA3C461F409}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2617470" y="182881"/>
+          <a:ext cx="975360" cy="601980"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6277"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Test</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Double</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>167641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68581</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F52BFBC-AB96-49CD-B908-736DDF428E06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="373380" y="1394461"/>
+          <a:ext cx="975360" cy="601980"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6277"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dummy</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Object</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>32385</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>167641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>32385</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68581</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆角矩形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBDD37D5-BA0F-4CF2-B1A4-4471CB91FFDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1495425" y="1394461"/>
+          <a:ext cx="975360" cy="601980"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6277"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Test</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Stub</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>167641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68581</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A2DA83-2F5E-4115-A9D7-33A96469EB71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2609850" y="1394461"/>
+          <a:ext cx="975360" cy="601980"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6277"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Test</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Spy</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>81915</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>167641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>81915</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68581</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="圆角矩形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B09A291-9125-426B-9FBF-8595520B043F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3739515" y="1394461"/>
+          <a:ext cx="975360" cy="601980"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6277"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Mock</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Object</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>167641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68581</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="圆角矩形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D66F9EB-6732-4CD9-AD5A-16C56453670F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4861560" y="1394461"/>
+          <a:ext cx="975360" cy="601980"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6277"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Fake</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Object</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>83821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>179070</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>167641</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="连接符: 肘形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11F0B3A1-4F8D-4C3B-8AA5-E8B0BB7900EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="0"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="1678305" y="-32384"/>
+          <a:ext cx="609600" cy="2244090"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>32384</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>83822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>179069</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>167642</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="连接符: 肘形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26DD870B-E3AC-4D34-AF27-45259C8904A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="0"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="2239327" y="528639"/>
+          <a:ext cx="609600" cy="1122045"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>179070</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>83821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>81915</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>167641</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="连接符: 肘形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EEBF8DE-E87C-4199-B8A8-342DB2749FDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="0"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="3361373" y="528638"/>
+          <a:ext cx="609600" cy="1122045"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>179070</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>83821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>167641</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="连接符: 肘形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFC0B636-17D3-43B6-906A-DB83957B63D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="0"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="3922395" y="-32384"/>
+          <a:ext cx="609600" cy="2244090"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>83821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>179070</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>167641</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直接箭头连接符 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0230A74-DDB9-45D7-AB38-02ABCF4D8E24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="0"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3097530" y="784861"/>
+          <a:ext cx="7620" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -46527,7 +47370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20838878-1577-584E-AE75-E05E723869CA}">
   <dimension ref="AH3:BE242"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V68" sqref="V68"/>
     </sheetView>
   </sheetViews>
@@ -46796,7 +47639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B9C6A3-FE38-9B4E-925F-9BD426903FA3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AP72" sqref="AP72"/>
     </sheetView>
   </sheetViews>
@@ -46866,13 +47709,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="AO23" sqref="AO23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="13.8"/>
   <sheetData/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/java pic.xlsx
+++ b/java pic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10513"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\blog\limingxie-blog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/projects/pangpang/limingxie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B7A721-5FEF-4D60-A416-9BCF75896F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{909AB43D-D5E2-624F-B270-09D9D55B6BA0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="java_stack" sheetId="19" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="diet" sheetId="29" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="31" r:id="rId7"/>
     <sheet name="test" sheetId="32" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="33" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
   <si>
     <t>PUSH(7)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,12 +361,108 @@
   <si>
     <t>5 - 초기화 : 클래스 변수들을 적절한 값으로 초기화한다. ( static 필드들을 설정된 값으로 초기화 등 )</t>
   </si>
+  <si>
+    <t>功能</t>
+    <rPh sb="0" eb="2">
+      <t>gong'nen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储</t>
+    <rPh sb="0" eb="2">
+      <t>cun'ch</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事务</t>
+    <rPh sb="0" eb="2">
+      <t>shi'w</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全文索引</t>
+    <rPh sb="0" eb="2">
+      <t>quan'wen'suo'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数索引</t>
+    <rPh sb="0" eb="2">
+      <t>suo'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希索引</t>
+    <rPh sb="0" eb="2">
+      <t>ha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据缓存</t>
+    <rPh sb="0" eb="2">
+      <t>shu'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键</t>
+    <rPh sb="0" eb="2">
+      <t>wai'jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InnoDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYISAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Archive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64TB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256TB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,8 +603,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,6 +640,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,7 +759,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -732,6 +843,18 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -46648,6 +46771,72 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>153372</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>139699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="img_009790b51a88771c9d9d3a4ebd577f16.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC26EBCD-64C1-924A-B99F-8855BF1E8F1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5181600" y="724872"/>
+          <a:ext cx="8064500" cy="4367827"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -46936,23 +47125,23 @@
       <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="9" width="5.77734375" customWidth="1"/>
+    <col min="4" max="9" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="13:25" s="5" customFormat="1" ht="17.399999999999999"/>
-    <row r="2" spans="13:25" s="5" customFormat="1" ht="17.399999999999999"/>
-    <row r="3" spans="13:25" s="5" customFormat="1" ht="17.399999999999999"/>
-    <row r="4" spans="13:25" s="5" customFormat="1" ht="17.399999999999999"/>
-    <row r="5" spans="13:25" s="5" customFormat="1" ht="17.399999999999999"/>
-    <row r="6" spans="13:25" s="5" customFormat="1" ht="17.399999999999999">
+    <row r="1" spans="13:25" s="5" customFormat="1" ht="22"/>
+    <row r="2" spans="13:25" s="5" customFormat="1" ht="22"/>
+    <row r="3" spans="13:25" s="5" customFormat="1" ht="22"/>
+    <row r="4" spans="13:25" s="5" customFormat="1" ht="22"/>
+    <row r="5" spans="13:25" s="5" customFormat="1" ht="22"/>
+    <row r="6" spans="13:25" s="5" customFormat="1" ht="22">
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
     </row>
-    <row r="7" spans="13:25" s="5" customFormat="1" ht="17.399999999999999">
+    <row r="7" spans="13:25" s="5" customFormat="1" ht="22">
       <c r="M7" s="6"/>
       <c r="N7" s="4"/>
       <c r="P7" s="6"/>
@@ -46963,7 +47152,7 @@
       <c r="W7" s="4"/>
       <c r="Y7" s="6"/>
     </row>
-    <row r="8" spans="13:25" s="5" customFormat="1" ht="17.399999999999999">
+    <row r="8" spans="13:25" s="5" customFormat="1" ht="22">
       <c r="M8" s="6"/>
       <c r="N8" s="4"/>
       <c r="P8" s="6"/>
@@ -46974,7 +47163,7 @@
       <c r="W8" s="4"/>
       <c r="Y8" s="6"/>
     </row>
-    <row r="9" spans="13:25" s="5" customFormat="1" ht="17.399999999999999">
+    <row r="9" spans="13:25" s="5" customFormat="1" ht="22">
       <c r="M9" s="6"/>
       <c r="N9" s="4"/>
       <c r="P9" s="6"/>
@@ -46985,7 +47174,7 @@
       <c r="W9" s="4"/>
       <c r="Y9" s="6"/>
     </row>
-    <row r="10" spans="13:25" s="5" customFormat="1" ht="20.399999999999999">
+    <row r="10" spans="13:25" s="5" customFormat="1" ht="24">
       <c r="M10" s="6"/>
       <c r="N10" s="4"/>
       <c r="P10" s="6"/>
@@ -46998,7 +47187,7 @@
       <c r="W10" s="4"/>
       <c r="Y10" s="6"/>
     </row>
-    <row r="11" spans="13:25" s="5" customFormat="1" ht="20.399999999999999">
+    <row r="11" spans="13:25" s="5" customFormat="1" ht="24">
       <c r="M11" s="6"/>
       <c r="N11" s="4"/>
       <c r="P11" s="8">
@@ -47015,7 +47204,7 @@
       <c r="W11" s="4"/>
       <c r="Y11" s="6"/>
     </row>
-    <row r="12" spans="13:25" s="5" customFormat="1" ht="20.399999999999999">
+    <row r="12" spans="13:25" s="5" customFormat="1" ht="24">
       <c r="M12" s="7">
         <v>2</v>
       </c>
@@ -47036,7 +47225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="13:25" s="5" customFormat="1" ht="20.399999999999999">
+    <row r="13" spans="13:25" s="5" customFormat="1" ht="24">
       <c r="M13" s="7">
         <v>11</v>
       </c>
@@ -47057,13 +47246,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="13:25" s="5" customFormat="1" ht="17.399999999999999">
+    <row r="14" spans="13:25" s="5" customFormat="1" ht="22">
       <c r="N14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="T14" s="4"/>
       <c r="W14" s="4"/>
     </row>
-    <row r="15" spans="13:25" s="5" customFormat="1" ht="20.399999999999999">
+    <row r="15" spans="13:25" s="5" customFormat="1" ht="24">
       <c r="M15" s="9" t="s">
         <v>0</v>
       </c>
@@ -47085,45 +47274,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="13:25" s="5" customFormat="1" ht="17.399999999999999">
+    <row r="16" spans="13:25" s="5" customFormat="1" ht="22">
       <c r="N16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="T16" s="4"/>
       <c r="W16" s="4"/>
     </row>
-    <row r="17" spans="11:26" s="5" customFormat="1" ht="17.399999999999999">
+    <row r="17" spans="11:26" s="5" customFormat="1" ht="22">
       <c r="T17" s="4"/>
       <c r="W17" s="4"/>
     </row>
-    <row r="18" spans="11:26" s="5" customFormat="1" ht="17.399999999999999">
+    <row r="18" spans="11:26" s="5" customFormat="1" ht="22">
       <c r="T18" s="4"/>
       <c r="W18" s="4"/>
     </row>
-    <row r="19" spans="11:26" s="5" customFormat="1" ht="17.399999999999999">
+    <row r="19" spans="11:26" s="5" customFormat="1" ht="22">
       <c r="T19" s="4"/>
       <c r="W19" s="4"/>
     </row>
-    <row r="20" spans="11:26" s="5" customFormat="1" ht="17.399999999999999">
+    <row r="20" spans="11:26" s="5" customFormat="1" ht="22">
       <c r="T20" s="4"/>
       <c r="W20" s="4"/>
     </row>
-    <row r="21" spans="11:26" s="5" customFormat="1" ht="17.399999999999999">
+    <row r="21" spans="11:26" s="5" customFormat="1" ht="22">
       <c r="T21" s="4"/>
       <c r="W21" s="4"/>
     </row>
-    <row r="22" spans="11:26" s="5" customFormat="1" ht="17.399999999999999">
+    <row r="22" spans="11:26" s="5" customFormat="1" ht="22">
       <c r="T22" s="4"/>
     </row>
-    <row r="23" spans="11:26" s="5" customFormat="1" ht="17.399999999999999">
+    <row r="23" spans="11:26" s="5" customFormat="1" ht="22">
       <c r="T23" s="4"/>
     </row>
-    <row r="24" spans="11:26" s="5" customFormat="1" ht="17.399999999999999"/>
-    <row r="25" spans="11:26" s="5" customFormat="1" ht="17.399999999999999"/>
-    <row r="26" spans="11:26" s="5" customFormat="1" ht="17.399999999999999"/>
-    <row r="27" spans="11:26" s="5" customFormat="1" ht="17.399999999999999"/>
-    <row r="28" spans="11:26" s="5" customFormat="1" ht="17.399999999999999"/>
-    <row r="29" spans="11:26" s="5" customFormat="1" ht="17.399999999999999"/>
-    <row r="30" spans="11:26" ht="17.399999999999999">
+    <row r="24" spans="11:26" s="5" customFormat="1" ht="22"/>
+    <row r="25" spans="11:26" s="5" customFormat="1" ht="22"/>
+    <row r="26" spans="11:26" s="5" customFormat="1" ht="22"/>
+    <row r="27" spans="11:26" s="5" customFormat="1" ht="22"/>
+    <row r="28" spans="11:26" s="5" customFormat="1" ht="22"/>
+    <row r="29" spans="11:26" s="5" customFormat="1" ht="22"/>
+    <row r="30" spans="11:26" ht="22">
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
@@ -47141,7 +47330,7 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
     </row>
-    <row r="35" spans="3:10" ht="14.4" thickBot="1"/>
+    <row r="35" spans="3:10" ht="16" thickBot="1"/>
     <row r="36" spans="3:10" ht="57" customHeight="1" thickBot="1">
       <c r="C36" s="3"/>
       <c r="D36" s="10"/>
@@ -47156,7 +47345,7 @@
       </c>
       <c r="J36" s="3"/>
     </row>
-    <row r="39" spans="3:10" ht="14.4" thickBot="1"/>
+    <row r="39" spans="3:10" ht="16" thickBot="1"/>
     <row r="40" spans="3:10" ht="57" customHeight="1" thickBot="1">
       <c r="C40" s="3"/>
       <c r="D40" s="10"/>
@@ -47173,7 +47362,7 @@
       </c>
       <c r="J40" s="3"/>
     </row>
-    <row r="43" spans="3:10" ht="14.4" thickBot="1"/>
+    <row r="43" spans="3:10" ht="16" thickBot="1"/>
     <row r="44" spans="3:10" ht="57" customHeight="1" thickBot="1">
       <c r="C44" s="3"/>
       <c r="D44" s="10"/>
@@ -47192,7 +47381,7 @@
       </c>
       <c r="J44" s="3"/>
     </row>
-    <row r="47" spans="3:10" ht="14.4" thickBot="1"/>
+    <row r="47" spans="3:10" ht="16" thickBot="1"/>
     <row r="48" spans="3:10" ht="57" customHeight="1" thickBot="1">
       <c r="C48" s="3"/>
       <c r="D48" s="10"/>
@@ -47209,7 +47398,7 @@
       </c>
       <c r="J48" s="3"/>
     </row>
-    <row r="51" spans="3:10" ht="14.4" thickBot="1"/>
+    <row r="51" spans="3:10" ht="16" thickBot="1"/>
     <row r="52" spans="3:10" ht="57" customHeight="1" thickBot="1">
       <c r="C52" s="3"/>
       <c r="D52" s="10"/>
@@ -47240,7 +47429,7 @@
       <selection activeCell="AA64" sqref="AA64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="17" spans="8:32">
       <c r="AF17" s="2"/>
@@ -47301,7 +47490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="8:32" ht="25.95" customHeight="1">
+    <row r="21" spans="8:32" ht="26" customHeight="1">
       <c r="H21" s="2" t="s">
         <v>4</v>
       </c>
@@ -47374,94 +47563,94 @@
       <selection activeCell="V68" sqref="V68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="20" customHeight="1"/>
   <sheetData>
-    <row r="3" spans="53:54" ht="19.95" customHeight="1">
+    <row r="3" spans="53:54" ht="20" customHeight="1">
       <c r="BA3" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="53:54" ht="19.95" customHeight="1">
+    <row r="4" spans="53:54" ht="20" customHeight="1">
       <c r="BB4" s="18"/>
     </row>
-    <row r="5" spans="53:54" ht="19.95" customHeight="1">
+    <row r="5" spans="53:54" ht="20" customHeight="1">
       <c r="BB5" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="53:53" ht="19.95" customHeight="1">
+    <row r="31" spans="53:53" ht="20" customHeight="1">
       <c r="BA31" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="53:53" ht="19.95" customHeight="1">
+    <row r="32" spans="53:53" ht="20" customHeight="1">
       <c r="BA32" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="53:54" ht="19.95" customHeight="1">
+    <row r="33" spans="53:54" ht="20" customHeight="1">
       <c r="BA33" s="18"/>
     </row>
-    <row r="34" spans="53:54" ht="19.95" customHeight="1">
+    <row r="34" spans="53:54" ht="20" customHeight="1">
       <c r="BA34" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="53:54" ht="19.95" customHeight="1">
+    <row r="44" spans="53:54" ht="20" customHeight="1">
       <c r="BB44" s="18"/>
     </row>
-    <row r="45" spans="53:54" ht="19.95" customHeight="1">
+    <row r="45" spans="53:54" ht="20" customHeight="1">
       <c r="BB45" s="18"/>
     </row>
-    <row r="46" spans="53:54" ht="19.95" customHeight="1">
+    <row r="46" spans="53:54" ht="20" customHeight="1">
       <c r="BB46" s="19"/>
     </row>
-    <row r="64" spans="34:34" ht="19.95" customHeight="1">
+    <row r="64" spans="34:34" ht="20" customHeight="1">
       <c r="AH64" s="2"/>
     </row>
     <row r="81" ht="21" customHeight="1"/>
-    <row r="104" spans="53:53" ht="19.95" customHeight="1">
+    <row r="104" spans="53:53" ht="20" customHeight="1">
       <c r="BA104" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="53:53" ht="19.95" customHeight="1">
+    <row r="105" spans="53:53" ht="20" customHeight="1">
       <c r="BA105" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="53:53" ht="19.95" customHeight="1">
+    <row r="106" spans="53:53" ht="20" customHeight="1">
       <c r="BA106" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="53:53" ht="19.95" customHeight="1">
+    <row r="108" spans="53:53" ht="20" customHeight="1">
       <c r="BA108" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="57:57" ht="19.95" customHeight="1">
+    <row r="118" spans="57:57" ht="20" customHeight="1">
       <c r="BE118" s="18"/>
     </row>
-    <row r="162" spans="53:57" ht="19.95" customHeight="1">
+    <row r="162" spans="53:57" ht="20" customHeight="1">
       <c r="BA162" s="18"/>
     </row>
-    <row r="163" spans="53:57" ht="19.95" customHeight="1">
+    <row r="163" spans="53:57" ht="20" customHeight="1">
       <c r="BA163" s="18"/>
     </row>
-    <row r="164" spans="53:57" ht="19.95" customHeight="1">
+    <row r="164" spans="53:57" ht="20" customHeight="1">
       <c r="BA164" s="18"/>
     </row>
-    <row r="176" spans="53:57" ht="19.95" customHeight="1">
+    <row r="176" spans="53:57" ht="20" customHeight="1">
       <c r="BE176" s="18"/>
     </row>
-    <row r="177" spans="53:57" ht="19.95" customHeight="1">
+    <row r="177" spans="53:57" ht="20" customHeight="1">
       <c r="BE177" s="18"/>
     </row>
-    <row r="178" spans="53:57" ht="19.95" customHeight="1">
+    <row r="178" spans="53:57" ht="20" customHeight="1">
       <c r="BE178" s="19"/>
     </row>
-    <row r="191" spans="53:57" ht="19.95" customHeight="1">
+    <row r="191" spans="53:57" ht="20" customHeight="1">
       <c r="BA191" s="20" t="s">
         <v>14</v>
       </c>
@@ -47478,7 +47667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="53:57" ht="19.95" customHeight="1">
+    <row r="192" spans="53:57" ht="20" customHeight="1">
       <c r="BA192" s="24" t="s">
         <v>19</v>
       </c>
@@ -47495,7 +47684,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="193" spans="53:57" ht="19.95" customHeight="1">
+    <row r="193" spans="53:57" ht="20" customHeight="1">
       <c r="BA193" s="24"/>
       <c r="BB193" s="18" t="s">
         <v>21</v>
@@ -47504,7 +47693,7 @@
       <c r="BD193" s="25"/>
       <c r="BE193" s="25"/>
     </row>
-    <row r="194" spans="53:57" ht="19.95" customHeight="1">
+    <row r="194" spans="53:57" ht="20" customHeight="1">
       <c r="BA194" s="20" t="s">
         <v>25</v>
       </c>
@@ -47521,7 +47710,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="53:57" ht="19.95" customHeight="1">
+    <row r="195" spans="53:57" ht="20" customHeight="1">
       <c r="BA195" s="20" t="s">
         <v>29</v>
       </c>
@@ -47538,7 +47727,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="196" spans="53:57" ht="19.95" customHeight="1">
+    <row r="196" spans="53:57" ht="20" customHeight="1">
       <c r="BA196" s="22" t="s">
         <v>34</v>
       </c>
@@ -47551,7 +47740,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="197" spans="53:57" ht="19.95" customHeight="1">
+    <row r="197" spans="53:57" ht="20" customHeight="1">
       <c r="BA197" s="26" t="s">
         <v>36</v>
       </c>
@@ -47568,7 +47757,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="198" spans="53:57" ht="19.95" customHeight="1">
+    <row r="198" spans="53:57" ht="20" customHeight="1">
       <c r="BA198" s="26"/>
       <c r="BB198" s="18" t="s">
         <v>38</v>
@@ -47577,39 +47766,39 @@
       <c r="BD198" s="25"/>
       <c r="BE198" s="27"/>
     </row>
-    <row r="234" spans="53:53" ht="19.95" customHeight="1">
+    <row r="234" spans="53:53" ht="20" customHeight="1">
       <c r="BA234" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="235" spans="53:53" ht="19.95" customHeight="1">
+    <row r="235" spans="53:53" ht="20" customHeight="1">
       <c r="BA235" s="23"/>
     </row>
-    <row r="236" spans="53:53" ht="19.95" customHeight="1">
+    <row r="236" spans="53:53" ht="20" customHeight="1">
       <c r="BA236" s="23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="237" spans="53:53" ht="19.95" customHeight="1">
+    <row r="237" spans="53:53" ht="20" customHeight="1">
       <c r="BA237" s="23"/>
     </row>
-    <row r="238" spans="53:53" ht="19.95" customHeight="1">
+    <row r="238" spans="53:53" ht="20" customHeight="1">
       <c r="BA238" s="23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="239" spans="53:53" ht="19.95" customHeight="1">
+    <row r="239" spans="53:53" ht="20" customHeight="1">
       <c r="BA239" s="23"/>
     </row>
-    <row r="240" spans="53:53" ht="19.95" customHeight="1">
+    <row r="240" spans="53:53" ht="20" customHeight="1">
       <c r="BA240" s="23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="241" spans="53:53" ht="19.95" customHeight="1">
+    <row r="241" spans="53:53" ht="20" customHeight="1">
       <c r="BA241" s="23"/>
     </row>
-    <row r="242" spans="53:53" ht="19.95" customHeight="1">
+    <row r="242" spans="53:53" ht="20" customHeight="1">
       <c r="BA242" s="23" t="s">
         <v>45</v>
       </c>
@@ -47643,7 +47832,7 @@
       <selection activeCell="AP72" sqref="AP72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47659,7 +47848,7 @@
       <selection activeCell="AP30" sqref="AP30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47675,7 +47864,7 @@
       <selection activeCell="AA74" sqref="AA74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47691,7 +47880,7 @@
       <selection activeCell="AK108" sqref="AK108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="64" spans="45:45">
       <c r="AS64" s="2"/>
@@ -47708,23 +47897,178 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B6966C-2BA2-401D-8B8A-8B0118F92A46}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="AO23" sqref="AO23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5546875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.5" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3D4699-DA57-4848-B38D-78D1A276D1DB}">
+  <dimension ref="B2:F9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="6" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="25" customHeight="1">
+      <c r="B2" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="25" customHeight="1">
+      <c r="B3" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="25" customHeight="1">
+      <c r="B4" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="25" customHeight="1">
+      <c r="B5" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="25" customHeight="1">
+      <c r="B6" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="25" customHeight="1">
+      <c r="B7" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="25" customHeight="1">
+      <c r="B8" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="25" customHeight="1">
+      <c r="B9" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -47735,15 +48079,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -47754,13 +48099,15 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -47778,7 +48125,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -47787,7 +48134,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -47805,7 +48152,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/java pic.xlsx
+++ b/java pic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/projects/pangpang/limingxie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{909AB43D-D5E2-624F-B270-09D9D55B6BA0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5199E089-B1F4-DA4C-A981-F32873D8A955}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="java_stack" sheetId="19" r:id="rId1"/>
@@ -21,14 +21,14 @@
     <sheet name="diet" sheetId="29" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="31" r:id="rId7"/>
     <sheet name="test" sheetId="32" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="33" r:id="rId9"/>
+    <sheet name="mysql" sheetId="33" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="87">
   <si>
     <t>PUSH(7)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -457,12 +457,81 @@
     <t xml:space="preserve"> - </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Table 13.2 InnoDB Storage Engine Index Characteristics</t>
+  </si>
+  <si>
+    <t>Index Class</t>
+  </si>
+  <si>
+    <t>Index Type</t>
+  </si>
+  <si>
+    <t>Stores NULL VALUES</t>
+  </si>
+  <si>
+    <t>Permits Multiple NULL Values</t>
+  </si>
+  <si>
+    <t>IS NULL Scan Type</t>
+  </si>
+  <si>
+    <t>IS NOT NULL Scan Type</t>
+  </si>
+  <si>
+    <t>Primary key</t>
+  </si>
+  <si>
+    <t>BTREE</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>FULLTEXT</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>SPATIAL</t>
+  </si>
+  <si>
+    <t>Table 13.3 MyISAM Storage Engine Index Characteristics</t>
+  </si>
+  <si>
+    <t>Table 13.4 MEMORY Storage Engine Index Characteristics</t>
+  </si>
+  <si>
+    <t>HASH</t>
+  </si>
+  <si>
+    <t>Table 13.5 NDB Storage Engine Index Characteristics</t>
+  </si>
+  <si>
+    <t>Table (see note 1)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -604,6 +673,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线 Light"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="等线 Light"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -759,7 +860,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -856,6 +957,18 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -913,8 +1026,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4361180" y="7195820"/>
-          <a:ext cx="454839" cy="508000"/>
+          <a:off x="4813300" y="8915400"/>
+          <a:ext cx="543739" cy="546100"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -1037,8 +1150,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3959860" y="7195820"/>
-          <a:ext cx="485319" cy="508000"/>
+          <a:off x="4406900" y="8915400"/>
+          <a:ext cx="531039" cy="546100"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -1357,8 +1470,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4361180" y="8453120"/>
-          <a:ext cx="454839" cy="508000"/>
+          <a:off x="4813300" y="10223500"/>
+          <a:ext cx="543739" cy="558800"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -1481,8 +1594,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3563620" y="8453120"/>
-          <a:ext cx="472619" cy="508000"/>
+          <a:off x="3949700" y="10223500"/>
+          <a:ext cx="531039" cy="558800"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -1862,8 +1975,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4361180" y="9710420"/>
-          <a:ext cx="454839" cy="508000"/>
+          <a:off x="4813300" y="11531600"/>
+          <a:ext cx="543739" cy="558800"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -1986,8 +2099,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3169920" y="9710420"/>
-          <a:ext cx="457379" cy="508000"/>
+          <a:off x="3517900" y="11531600"/>
+          <a:ext cx="505639" cy="558800"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -2499,8 +2612,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4361180" y="10967720"/>
-          <a:ext cx="454839" cy="508000"/>
+          <a:off x="4813300" y="12839700"/>
+          <a:ext cx="543739" cy="558800"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -2623,8 +2736,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3563620" y="10967720"/>
-          <a:ext cx="472619" cy="508000"/>
+          <a:off x="3949700" y="12839700"/>
+          <a:ext cx="531039" cy="558800"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -2750,8 +2863,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4361180" y="12225020"/>
-          <a:ext cx="454839" cy="508000"/>
+          <a:off x="4813300" y="14147800"/>
+          <a:ext cx="543739" cy="546100"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -2874,8 +2987,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3962400" y="12225020"/>
-          <a:ext cx="482779" cy="508000"/>
+          <a:off x="4406900" y="14147800"/>
+          <a:ext cx="531039" cy="546100"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -6023,8 +6136,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10353040" y="15173960"/>
-          <a:ext cx="543739" cy="500380"/>
+          <a:off x="11480800" y="17284700"/>
+          <a:ext cx="543739" cy="546100"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -6147,8 +6260,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3322320" y="9862820"/>
-          <a:ext cx="457379" cy="508000"/>
+          <a:off x="3670300" y="11684000"/>
+          <a:ext cx="505639" cy="558800"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -6274,8 +6387,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11805920" y="15173960"/>
-          <a:ext cx="498019" cy="513080"/>
+          <a:off x="13017500" y="17284700"/>
+          <a:ext cx="581839" cy="558800"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -6811,8 +6924,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6646051" y="2250440"/>
-          <a:ext cx="510719" cy="370840"/>
+          <a:off x="7354711" y="2806700"/>
+          <a:ext cx="594539" cy="431800"/>
           <a:chOff x="1957211" y="3086100"/>
           <a:chExt cx="543739" cy="431800"/>
         </a:xfrm>
@@ -7345,8 +7458,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6646051" y="3025140"/>
-          <a:ext cx="510719" cy="386069"/>
+          <a:off x="7354711" y="3733800"/>
+          <a:ext cx="594539" cy="444489"/>
           <a:chOff x="1957211" y="3873500"/>
           <a:chExt cx="543739" cy="431789"/>
         </a:xfrm>
@@ -7469,8 +7582,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16143111" y="2250440"/>
-          <a:ext cx="510719" cy="370840"/>
+          <a:off x="17857611" y="2806700"/>
+          <a:ext cx="594539" cy="431800"/>
           <a:chOff x="1957211" y="3086100"/>
           <a:chExt cx="543739" cy="431800"/>
         </a:xfrm>
@@ -7593,8 +7706,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16143111" y="3025140"/>
-          <a:ext cx="510719" cy="386069"/>
+          <a:off x="17857611" y="3733800"/>
+          <a:ext cx="594539" cy="444489"/>
           <a:chOff x="1957211" y="3873500"/>
           <a:chExt cx="543739" cy="431789"/>
         </a:xfrm>
@@ -7717,8 +7830,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9023491" y="2026920"/>
-          <a:ext cx="510719" cy="386080"/>
+          <a:off x="9983611" y="2552700"/>
+          <a:ext cx="594539" cy="431800"/>
           <a:chOff x="1957211" y="3086100"/>
           <a:chExt cx="543739" cy="431800"/>
         </a:xfrm>
@@ -7841,8 +7954,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9023491" y="3025140"/>
-          <a:ext cx="510719" cy="386069"/>
+          <a:off x="9983611" y="3733800"/>
+          <a:ext cx="594539" cy="444489"/>
           <a:chOff x="1957211" y="3873500"/>
           <a:chExt cx="543739" cy="431789"/>
         </a:xfrm>
@@ -7965,8 +8078,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11400931" y="1767840"/>
-          <a:ext cx="510719" cy="373380"/>
+          <a:off x="12612511" y="2235200"/>
+          <a:ext cx="594539" cy="431800"/>
           <a:chOff x="1957211" y="3086100"/>
           <a:chExt cx="543739" cy="431800"/>
         </a:xfrm>
@@ -8089,8 +8202,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11400931" y="3025140"/>
-          <a:ext cx="510719" cy="386069"/>
+          <a:off x="12612511" y="3733800"/>
+          <a:ext cx="594539" cy="444489"/>
           <a:chOff x="1957211" y="3873500"/>
           <a:chExt cx="543739" cy="431789"/>
         </a:xfrm>
@@ -8213,8 +8326,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13778371" y="2026920"/>
-          <a:ext cx="510719" cy="386080"/>
+          <a:off x="15241411" y="2552700"/>
+          <a:ext cx="594539" cy="431800"/>
           <a:chOff x="1957211" y="3086100"/>
           <a:chExt cx="543739" cy="431800"/>
         </a:xfrm>
@@ -8337,8 +8450,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13778371" y="3025140"/>
-          <a:ext cx="510719" cy="386069"/>
+          <a:off x="15241411" y="3733800"/>
+          <a:ext cx="594539" cy="444489"/>
           <a:chOff x="1957211" y="3873500"/>
           <a:chExt cx="543739" cy="431789"/>
         </a:xfrm>
@@ -25777,6 +25890,1900 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>152982</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="266" name="椭圆 265">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{362BEC6B-5528-FF4F-8862-C95102EC7848}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712200" y="8432799"/>
+          <a:ext cx="469900" cy="432383"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>42</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>45485</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>127291</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="267" name="直线箭头连接符 266">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13FCF855-EFD8-3443-80F0-A960DE130283}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="266" idx="2"/>
+          <a:endCxn id="276" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8046485" y="8648991"/>
+          <a:ext cx="665715" cy="558329"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>102182</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="276" name="椭圆 275">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E5083E2-7ADE-2B4B-90BC-467B71F3392D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7645400" y="9143999"/>
+          <a:ext cx="469900" cy="432383"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>31</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>76782</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="277" name="椭圆 276">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F649274D-1D52-9140-AC4A-35F9EE695C81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="9118599"/>
+          <a:ext cx="469900" cy="432383"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>27</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>127291</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>43415</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>88720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="279" name="直线箭头连接符 278">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B97137B3-C477-514F-AA47-D5A477D12364}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="266" idx="6"/>
+          <a:endCxn id="277" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9182100" y="8648991"/>
+          <a:ext cx="640315" cy="532929"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>388385</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>38861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>157715</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>190320</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="282" name="直线箭头连接符 281">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E1FB648-567D-164F-8C96-A64137E1450C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="276" idx="3"/>
+          <a:endCxn id="283" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7500385" y="9513061"/>
+          <a:ext cx="213830" cy="341959"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>178382</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="283" name="椭圆 282">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48C0F0EA-2C11-9446-8A95-6BA2546ED3A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7099300" y="9791699"/>
+          <a:ext cx="469900" cy="432383"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>22</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>182033</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>207433</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>178382</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="284" name="椭圆 283">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41010C1C-4FEB-DA44-8DFD-5B99D2C5D2B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8183033" y="9791699"/>
+          <a:ext cx="469900" cy="432383"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>45485</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>38861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>250848</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>190320</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="285" name="直线箭头连接符 284">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCE8DDDD-37C6-4F49-96FA-47BBD4CCD192}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="276" idx="5"/>
+          <a:endCxn id="284" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8046485" y="9513061"/>
+          <a:ext cx="205363" cy="341959"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>115061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>56115</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="286" name="直线箭头连接符 285">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFEDD686-53FE-E748-9FD9-91E54689A5C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="283" idx="3"/>
+          <a:endCxn id="287" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7004050" y="10160761"/>
+          <a:ext cx="164065" cy="316155"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="287" name="椭圆 286">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11FFA09E-5249-E246-97BB-6FD582175A26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6769100" y="10476916"/>
+          <a:ext cx="469900" cy="432383"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>13</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>277586</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>302986</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="288" name="椭圆 287">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD0B4FA0-33BF-484A-BA14-13B0E7A0DB4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7389586" y="10476916"/>
+          <a:ext cx="469900" cy="432383"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>388385</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>115061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="289" name="直线箭头连接符 288">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03FE3E9D-F912-F940-AA22-AABEC8BD6378}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="283" idx="5"/>
+          <a:endCxn id="288" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7500385" y="10160761"/>
+          <a:ext cx="124151" cy="316155"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333351</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>13461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>43415</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>190320</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="290" name="直线箭头连接符 289">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEC72123-E46A-1A4C-858F-9E2836FD913E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="277" idx="3"/>
+          <a:endCxn id="291" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9667851" y="9487661"/>
+          <a:ext cx="154564" cy="367359"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>376766</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>402166</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>178382</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="291" name="椭圆 290">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B63FB63-6533-F64E-B8B4-81F9E3F080C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9266766" y="9791699"/>
+          <a:ext cx="469900" cy="432383"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>21</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>178382</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="292" name="椭圆 291">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8A5E097-0D8D-EA42-BCDB-AA38C15BD1A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10350500" y="9791699"/>
+          <a:ext cx="469900" cy="432383"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>375685</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>13461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>195815</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>190320</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="293" name="直线箭头连接符 292">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C0E7D09-F724-0E4E-AAD7-07922C43C277}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="277" idx="5"/>
+          <a:endCxn id="292" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10154685" y="9487661"/>
+          <a:ext cx="264630" cy="367359"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>129722</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>115061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>250848</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="294" name="直线箭头连接符 293">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B712306-465F-5E46-945D-9F47E1AC1E2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="284" idx="3"/>
+          <a:endCxn id="348" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8130722" y="10160761"/>
+          <a:ext cx="121126" cy="316155"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>339272</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>364672</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="348" name="椭圆 347">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FCA1323-7157-7045-AC6F-7DCCB15A9B5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7895772" y="10476916"/>
+          <a:ext cx="469900" cy="432383"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19958</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45358</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="349" name="椭圆 348">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFD0A364-615A-E643-9E4F-1324487B7E95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8465458" y="10476916"/>
+          <a:ext cx="469900" cy="432383"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>11</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>138618</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>115061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>254908</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="350" name="直线箭头连接符 349">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F1E9B0E-DD41-C040-8434-2EF32F351FBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="284" idx="5"/>
+          <a:endCxn id="349" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8584118" y="10160761"/>
+          <a:ext cx="116290" cy="316155"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>341994</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>115061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1081</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="351" name="直线箭头连接符 350">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D633498B-D947-4C41-9B6C-3EF64C196271}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="291" idx="3"/>
+          <a:endCxn id="352" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9231994" y="10160761"/>
+          <a:ext cx="103587" cy="316155"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>107044</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>132444</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="352" name="椭圆 351">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD4E1574-1EEB-1440-899B-B8067740EB05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8997044" y="10476916"/>
+          <a:ext cx="469900" cy="432383"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>17</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219530</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>244930</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="353" name="椭圆 352">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F135B0F-1700-274E-81F1-E9F8F878961F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9554030" y="10476916"/>
+          <a:ext cx="469900" cy="432383"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333351</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>115061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9980</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="354" name="直线箭头连接符 353">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DCC1088-3BC9-0842-A83A-EE3773A3D3BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="291" idx="5"/>
+          <a:endCxn id="353" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9667851" y="10160761"/>
+          <a:ext cx="121129" cy="316155"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="978345" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文本框 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15EB3B15-3117-BF45-856E-1E0B7EAD6DF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933700" y="12877800"/>
+          <a:ext cx="978345" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>node(root)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1013226" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="355" name="文本框 354">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A497CB9C-42D2-6B4C-96B8-DC22AB8A40E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4178300" y="13576300"/>
+          <a:ext cx="1013226" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>node(child)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="538802" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="356" name="文本框 355">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6BBFCA0-5D09-3C4D-ADAB-388D13997B90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5067300" y="14376400"/>
+          <a:ext cx="538802" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>page</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -28836,8 +30843,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="777240" y="26281380"/>
-          <a:ext cx="11981180" cy="2250440"/>
+          <a:off x="876300" y="26543000"/>
+          <a:ext cx="13500100" cy="2273300"/>
           <a:chOff x="876300" y="26543000"/>
           <a:chExt cx="13500100" cy="2273300"/>
         </a:xfrm>
@@ -32974,8 +34981,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8001000" y="43790947"/>
-          <a:ext cx="1907540" cy="396971"/>
+          <a:off x="8991600" y="44230367"/>
+          <a:ext cx="2171700" cy="399511"/>
           <a:chOff x="8953500" y="18089234"/>
           <a:chExt cx="2171700" cy="304799"/>
         </a:xfrm>
@@ -35527,8 +37534,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3703320" y="22070060"/>
-          <a:ext cx="3380740" cy="3469640"/>
+          <a:off x="4165600" y="22288500"/>
+          <a:ext cx="3810000" cy="3505200"/>
           <a:chOff x="4025900" y="23088600"/>
           <a:chExt cx="3810000" cy="1968500"/>
         </a:xfrm>
@@ -36124,8 +38131,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7665720" y="22070060"/>
-          <a:ext cx="5054600" cy="3469640"/>
+          <a:off x="8623300" y="22288500"/>
+          <a:ext cx="5715000" cy="3505200"/>
           <a:chOff x="13817600" y="18554700"/>
           <a:chExt cx="5715000" cy="2959100"/>
         </a:xfrm>
@@ -46771,72 +48778,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>153372</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>139699</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="img_009790b51a88771c9d9d3a4ebd577f16.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC26EBCD-64C1-924A-B99F-8855BF1E8F1F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5181600" y="724872"/>
-          <a:ext cx="8064500" cy="4367827"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -47425,8 +49366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BAF9AF-ACC1-EC41-890D-538B5AD38D0F}">
   <dimension ref="H17:AN58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="AA64" sqref="AA64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="L73" sqref="L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="15"/>
@@ -47559,7 +49500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20838878-1577-584E-AE75-E05E723869CA}">
   <dimension ref="AH3:BE242"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V68" sqref="V68"/>
     </sheetView>
   </sheetViews>
@@ -47860,7 +49801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9322C690-C177-CC4D-A0C3-C7CD8C98272B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A33" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="AA74" sqref="AA74"/>
     </sheetView>
   </sheetViews>
@@ -47876,7 +49817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958C2DB6-F91C-F34E-A9BB-27E8AFC47240}">
   <dimension ref="AS64"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AK108" sqref="AK108"/>
     </sheetView>
   </sheetViews>
@@ -47912,19 +49853,25 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3D4699-DA57-4848-B38D-78D1A276D1DB}">
-  <dimension ref="B2:F9"/>
+  <dimension ref="B2:Q46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.83203125" customWidth="1"/>
     <col min="3" max="6" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="29.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="25" customHeight="1">
+    <row r="2" spans="2:17" ht="25" customHeight="1">
       <c r="B2" s="31" t="s">
         <v>46</v>
       </c>
@@ -47941,7 +49888,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="25" customHeight="1">
+    <row r="3" spans="2:17" ht="25" customHeight="1">
       <c r="B3" s="28" t="s">
         <v>47</v>
       </c>
@@ -47958,7 +49905,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="25" customHeight="1">
+    <row r="4" spans="2:17" ht="25" customHeight="1">
       <c r="B4" s="28" t="s">
         <v>48</v>
       </c>
@@ -47975,7 +49922,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="25" customHeight="1">
+    <row r="5" spans="2:17" ht="25" customHeight="1">
       <c r="B5" s="28" t="s">
         <v>49</v>
       </c>
@@ -47992,7 +49939,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="25" customHeight="1">
+    <row r="6" spans="2:17" ht="25" customHeight="1">
       <c r="B6" s="28" t="s">
         <v>50</v>
       </c>
@@ -48009,7 +49956,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="25" customHeight="1">
+    <row r="7" spans="2:17" ht="25" customHeight="1">
       <c r="B7" s="28" t="s">
         <v>51</v>
       </c>
@@ -48026,7 +49973,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="25" customHeight="1">
+    <row r="8" spans="2:17" ht="25" customHeight="1">
       <c r="B8" s="28" t="s">
         <v>52</v>
       </c>
@@ -48043,7 +49990,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="25" customHeight="1">
+    <row r="9" spans="2:17" ht="25" customHeight="1">
       <c r="B9" s="28" t="s">
         <v>53</v>
       </c>
@@ -48060,10 +50007,549 @@
         <v>62</v>
       </c>
     </row>
+    <row r="14" spans="2:17" ht="18">
+      <c r="L14" s="32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="18">
+      <c r="L15" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="O15" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q15" s="35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="18">
+      <c r="L16" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="M16" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="N16" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="O16" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q16" s="33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="12:17" ht="18">
+      <c r="L17" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="O17" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q17" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="12:17" ht="18">
+      <c r="L18" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="M18" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="N18" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="O18" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="P18" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q18" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="12:17" ht="18">
+      <c r="L19" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="M19" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="N19" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="O19" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="P19" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q19" s="33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="12:17" ht="18">
+      <c r="L20" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="M20" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="N20" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="O20" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="P20" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q20" s="33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="12:17" ht="18">
+      <c r="L22" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="12:17" ht="18">
+      <c r="L23" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="M23" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="N23" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="O23" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="P23" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q23" s="35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="12:17" ht="18">
+      <c r="L24" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="M24" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="N24" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="O24" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q24" s="33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="12:17" ht="18">
+      <c r="L25" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="M25" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="N25" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="O25" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q25" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="12:17" ht="18">
+      <c r="L26" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="M26" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="N26" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="O26" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="P26" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q26" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="12:17" ht="18">
+      <c r="L27" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="M27" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="N27" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="O27" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q27" s="33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="12:17" ht="18">
+      <c r="L28" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="M28" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="N28" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="O28" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="P28" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q28" s="33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="12:17" ht="18">
+      <c r="L30" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="12:17" ht="18">
+      <c r="L31" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="M31" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="N31" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="O31" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="P31" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q31" s="35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="12:17" ht="18">
+      <c r="L32" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="M32" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="N32" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="O32" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="P32" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q32" s="33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="12:17" ht="18">
+      <c r="L33" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="M33" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="N33" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="O33" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="P33" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q33" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="12:17" ht="18">
+      <c r="L34" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="M34" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="N34" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="O34" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="P34" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q34" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="12:17" ht="18">
+      <c r="L35" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="M35" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="N35" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="O35" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="P35" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q35" s="33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="12:17" ht="18">
+      <c r="L36" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="M36" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="N36" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="O36" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="P36" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q36" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="12:17" ht="18">
+      <c r="L37" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="M37" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="N37" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="O37" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="P37" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q37" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="12:17" ht="18">
+      <c r="L39" s="32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="12:17" ht="18">
+      <c r="L40" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="M40" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="N40" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="O40" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="P40" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q40" s="35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="12:17" ht="18">
+      <c r="L41" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="M41" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="N41" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="O41" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="P41" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q41" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="12:17" ht="18">
+      <c r="L42" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="M42" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="N42" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="O42" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="P42" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q42" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="12:17" ht="18">
+      <c r="L43" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="M43" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="N43" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="O43" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="P43" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q43" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="12:17" ht="18">
+      <c r="L44" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="M44" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="N44" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="O44" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="P44" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q44" s="33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="12:17" ht="18">
+      <c r="L45" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="M45" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="N45" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="O45" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="P45" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q45" s="33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="12:17" ht="18">
+      <c r="L46" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="M46" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="N46" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="O46" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="P46" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q46" s="33" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/java pic.xlsx
+++ b/java pic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/projects/pangpang/limingxie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\blog\limingxie-blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5199E089-B1F4-DA4C-A981-F32873D8A955}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1CFAA7-4BB6-46C8-B847-58E90D77062D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="java_stack" sheetId="19" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Sheet1" sheetId="31" r:id="rId7"/>
     <sheet name="test" sheetId="32" r:id="rId8"/>
     <sheet name="mysql" sheetId="33" r:id="rId9"/>
+    <sheet name="tree" sheetId="34" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -933,18 +934,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -967,6 +956,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1026,8 +1027,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4813300" y="8915400"/>
-          <a:ext cx="543739" cy="546100"/>
+          <a:off x="4338320" y="7195820"/>
+          <a:ext cx="454839" cy="508000"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -1150,8 +1151,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4406900" y="8915400"/>
-          <a:ext cx="531039" cy="546100"/>
+          <a:off x="3937000" y="7195820"/>
+          <a:ext cx="485319" cy="508000"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -1470,8 +1471,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4813300" y="10223500"/>
-          <a:ext cx="543739" cy="558800"/>
+          <a:off x="4338320" y="8453120"/>
+          <a:ext cx="454839" cy="508000"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -1594,8 +1595,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3949700" y="10223500"/>
-          <a:ext cx="531039" cy="558800"/>
+          <a:off x="3540760" y="8453120"/>
+          <a:ext cx="472619" cy="508000"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -1975,8 +1976,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4813300" y="11531600"/>
-          <a:ext cx="543739" cy="558800"/>
+          <a:off x="4338320" y="9710420"/>
+          <a:ext cx="454839" cy="508000"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -2099,8 +2100,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3517900" y="11531600"/>
-          <a:ext cx="505639" cy="558800"/>
+          <a:off x="3147060" y="9710420"/>
+          <a:ext cx="457379" cy="508000"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -2612,8 +2613,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4813300" y="12839700"/>
-          <a:ext cx="543739" cy="558800"/>
+          <a:off x="4338320" y="10967720"/>
+          <a:ext cx="454839" cy="508000"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -2736,8 +2737,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3949700" y="12839700"/>
-          <a:ext cx="531039" cy="558800"/>
+          <a:off x="3540760" y="10967720"/>
+          <a:ext cx="472619" cy="508000"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -2863,8 +2864,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4813300" y="14147800"/>
-          <a:ext cx="543739" cy="546100"/>
+          <a:off x="4338320" y="12225020"/>
+          <a:ext cx="454839" cy="508000"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -2987,8 +2988,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4406900" y="14147800"/>
-          <a:ext cx="531039" cy="546100"/>
+          <a:off x="3939540" y="12225020"/>
+          <a:ext cx="482779" cy="508000"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -6136,8 +6137,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11480800" y="17284700"/>
-          <a:ext cx="543739" cy="546100"/>
+          <a:off x="10276840" y="15173960"/>
+          <a:ext cx="543739" cy="500380"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -6260,8 +6261,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3670300" y="11684000"/>
-          <a:ext cx="505639" cy="558800"/>
+          <a:off x="3299460" y="9862820"/>
+          <a:ext cx="457379" cy="508000"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -6387,8 +6388,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13017500" y="17284700"/>
-          <a:ext cx="581839" cy="558800"/>
+          <a:off x="11722100" y="15173960"/>
+          <a:ext cx="490399" cy="513080"/>
           <a:chOff x="5359400" y="406400"/>
           <a:chExt cx="543739" cy="546100"/>
         </a:xfrm>
@@ -6924,8 +6925,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7354711" y="2806700"/>
-          <a:ext cx="594539" cy="431800"/>
+          <a:off x="6607951" y="2250440"/>
+          <a:ext cx="503099" cy="370840"/>
           <a:chOff x="1957211" y="3086100"/>
           <a:chExt cx="543739" cy="431800"/>
         </a:xfrm>
@@ -7458,8 +7459,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7354711" y="3733800"/>
-          <a:ext cx="594539" cy="444489"/>
+          <a:off x="6607951" y="3025140"/>
+          <a:ext cx="503099" cy="386069"/>
           <a:chOff x="1957211" y="3873500"/>
           <a:chExt cx="543739" cy="431789"/>
         </a:xfrm>
@@ -7582,8 +7583,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17857611" y="2806700"/>
-          <a:ext cx="594539" cy="431800"/>
+          <a:off x="16013571" y="2250440"/>
+          <a:ext cx="503099" cy="370840"/>
           <a:chOff x="1957211" y="3086100"/>
           <a:chExt cx="543739" cy="431800"/>
         </a:xfrm>
@@ -7706,8 +7707,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17857611" y="3733800"/>
-          <a:ext cx="594539" cy="444489"/>
+          <a:off x="16013571" y="3025140"/>
+          <a:ext cx="503099" cy="386069"/>
           <a:chOff x="1957211" y="3873500"/>
           <a:chExt cx="543739" cy="431789"/>
         </a:xfrm>
@@ -7830,8 +7831,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9983611" y="2552700"/>
-          <a:ext cx="594539" cy="431800"/>
+          <a:off x="8962531" y="2026920"/>
+          <a:ext cx="503099" cy="386080"/>
           <a:chOff x="1957211" y="3086100"/>
           <a:chExt cx="543739" cy="431800"/>
         </a:xfrm>
@@ -7954,8 +7955,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9983611" y="3733800"/>
-          <a:ext cx="594539" cy="444489"/>
+          <a:off x="8962531" y="3025140"/>
+          <a:ext cx="503099" cy="386069"/>
           <a:chOff x="1957211" y="3873500"/>
           <a:chExt cx="543739" cy="431789"/>
         </a:xfrm>
@@ -8078,8 +8079,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12612511" y="2235200"/>
-          <a:ext cx="594539" cy="431800"/>
+          <a:off x="11317111" y="1767840"/>
+          <a:ext cx="503099" cy="373380"/>
           <a:chOff x="1957211" y="3086100"/>
           <a:chExt cx="543739" cy="431800"/>
         </a:xfrm>
@@ -8202,8 +8203,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12612511" y="3733800"/>
-          <a:ext cx="594539" cy="444489"/>
+          <a:off x="11317111" y="3025140"/>
+          <a:ext cx="503099" cy="386069"/>
           <a:chOff x="1957211" y="3873500"/>
           <a:chExt cx="543739" cy="431789"/>
         </a:xfrm>
@@ -8326,8 +8327,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15241411" y="2552700"/>
-          <a:ext cx="594539" cy="431800"/>
+          <a:off x="13671691" y="2026920"/>
+          <a:ext cx="503099" cy="386080"/>
           <a:chOff x="1957211" y="3086100"/>
           <a:chExt cx="543739" cy="431800"/>
         </a:xfrm>
@@ -8450,8 +8451,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15241411" y="3733800"/>
-          <a:ext cx="594539" cy="444489"/>
+          <a:off x="13671691" y="3025140"/>
+          <a:ext cx="503099" cy="386069"/>
           <a:chOff x="1957211" y="3873500"/>
           <a:chExt cx="543739" cy="431789"/>
         </a:xfrm>
@@ -30843,8 +30844,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="876300" y="26543000"/>
-          <a:ext cx="13500100" cy="2273300"/>
+          <a:off x="777240" y="26281380"/>
+          <a:ext cx="11981180" cy="2250440"/>
           <a:chOff x="876300" y="26543000"/>
           <a:chExt cx="13500100" cy="2273300"/>
         </a:xfrm>
@@ -34981,8 +34982,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8991600" y="44230367"/>
-          <a:ext cx="2171700" cy="399511"/>
+          <a:off x="8001000" y="43790947"/>
+          <a:ext cx="1907540" cy="396971"/>
           <a:chOff x="8953500" y="18089234"/>
           <a:chExt cx="2171700" cy="304799"/>
         </a:xfrm>
@@ -37534,8 +37535,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4165600" y="22288500"/>
-          <a:ext cx="3810000" cy="3505200"/>
+          <a:off x="3703320" y="22070060"/>
+          <a:ext cx="3380740" cy="3469640"/>
           <a:chOff x="4025900" y="23088600"/>
           <a:chExt cx="3810000" cy="1968500"/>
         </a:xfrm>
@@ -38131,8 +38132,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8623300" y="22288500"/>
-          <a:ext cx="5715000" cy="3505200"/>
+          <a:off x="7665720" y="22070060"/>
+          <a:ext cx="5054600" cy="3469640"/>
           <a:chOff x="13817600" y="18554700"/>
           <a:chExt cx="5715000" cy="2959100"/>
         </a:xfrm>
@@ -48778,6 +48779,7640 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>283992</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152982</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="椭圆 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDFDCE6D-2C06-4120-822B-0DA53FCBA031}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2644140" y="627379"/>
+          <a:ext cx="413532" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>45632</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127291</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>109656</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直线箭头连接符 266">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D898D17-1288-4F8E-93E3-88D9CCCA587A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="2"/>
+          <a:endCxn id="32" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2026832" y="828331"/>
+          <a:ext cx="617308" cy="508145"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>106192</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>102182</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="椭圆 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B000FC8-E47D-4A8E-B20C-BC2762253770}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1673860" y="1277619"/>
+          <a:ext cx="413532" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76782</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="椭圆 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44686C9D-6F8A-4AC3-8927-58700241BC45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3642360" y="1252219"/>
+          <a:ext cx="419100" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>283992</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127291</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>137576</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>84256</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直线箭头连接符 278">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE47BF1A-B7CC-4C90-B82E-3E6E6E303B42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="6"/>
+          <a:endCxn id="33" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3057672" y="828331"/>
+          <a:ext cx="646064" cy="482745"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>341926</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>43325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>149460</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>10596</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直线箭头连接符 281">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62489D76-A1F6-45EE-B602-9282D675A954}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="3"/>
+          <a:endCxn id="36" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1530646" y="1620665"/>
+          <a:ext cx="203774" cy="317791"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4787</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>3122</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="椭圆 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11C48DBB-7837-47AE-816F-4E275B228E4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1186180" y="1879599"/>
+          <a:ext cx="403567" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>182033</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>199325</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>3122</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="椭圆 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D665782-C4BF-4686-8E9E-305668A638B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2163233" y="1879599"/>
+          <a:ext cx="413532" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>45632</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>43325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>242593</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>10596</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直线箭头连接符 284">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C942285A-495C-41BE-BCFF-47B719DDF4FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="5"/>
+          <a:endCxn id="37" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2026832" y="1620665"/>
+          <a:ext cx="196961" cy="317791"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>308366</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>119525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>56561</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直线箭头连接符 285">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C54B412-A25F-4894-A80F-5BB5154C7CD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="3"/>
+          <a:endCxn id="40" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1100846" y="2222645"/>
+          <a:ext cx="144435" cy="281211"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>118892</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="椭圆 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E2B1F76-3F41-442F-B51E-146019DF0EE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="894080" y="2503856"/>
+          <a:ext cx="413532" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>204434</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>221726</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="椭圆 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D95D0C06-CC21-4C2B-8CD6-290A2F7A645A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1393154" y="2503856"/>
+          <a:ext cx="413532" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>341926</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>119525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14960</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直线箭头连接符 288">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A6247E4-1B34-4374-AE86-8E5CF44CAC3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="5"/>
+          <a:endCxn id="41" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1530646" y="2222645"/>
+          <a:ext cx="69274" cy="281211"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>357598</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>17925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>137576</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>10596</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直线箭头连接符 289">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5A820F-49E1-4E44-8F77-704BFB80E54C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="44" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3527518" y="1595265"/>
+          <a:ext cx="176218" cy="343191"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>11006</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>20824</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>3122</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="椭圆 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AAE5645-892F-4CEB-BA26-347305D30241}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3180926" y="1879599"/>
+          <a:ext cx="406058" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>149860</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>167152</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>3122</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="椭圆 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50DC1403-5762-4B26-8355-7396CFC6857B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4112260" y="1879599"/>
+          <a:ext cx="413532" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="700" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>37684</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>17925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>210420</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>10596</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直线箭头连接符 292">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2036DFBE-472F-4FC9-9AF3-88A7DF156BCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="5"/>
+          <a:endCxn id="45" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000084" y="1595265"/>
+          <a:ext cx="172736" cy="343191"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>117794</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>119525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>242593</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直线箭头连接符 293">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E77E914-C298-4A61-B784-48A7C58E1A78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="3"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2098994" y="2222645"/>
+          <a:ext cx="124799" cy="281211"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>307268</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>324560</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="椭圆 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD9FD4F-E119-4502-9990-CE975FCA84CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1892228" y="2503856"/>
+          <a:ext cx="413532" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>13862</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>31154</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="椭圆 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5B8E989-AD26-420A-B9C0-A46D2FFD75B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2391302" y="2503856"/>
+          <a:ext cx="413532" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>11</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>138765</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>119525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>220628</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直线箭头连接符 349">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12433C6C-F726-43CA-A4D0-48BBC9F45C37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="5"/>
+          <a:endCxn id="49" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2516205" y="2222645"/>
+          <a:ext cx="81863" cy="281211"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323462</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>119525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>70472</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直线箭头连接符 350">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98559E53-FE5A-432E-B9B8-9E299D597D5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="3"/>
+          <a:endCxn id="52" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3097142" y="2222645"/>
+          <a:ext cx="143250" cy="281211"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>116696</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133988</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="椭圆 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77CC3992-A59E-450B-A0FA-22E26F637700}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2890376" y="2503856"/>
+          <a:ext cx="413532" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>12</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>265250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>282542</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="椭圆 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2232AAB-4E28-4115-9725-19F621A9D968}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3435170" y="2503856"/>
+          <a:ext cx="413532" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>13</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>357598</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>119525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>75776</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直线箭头连接符 353">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BFE74F9-705B-42E8-8200-34DF19900DC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="5"/>
+          <a:endCxn id="53" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3527518" y="2222645"/>
+          <a:ext cx="114418" cy="281211"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="文本框 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DC606F1-46B1-4A27-998E-5889E956D6E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2491740" y="464820"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="文本框 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E35B404B-8269-4A95-8EF5-4148C3752CD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1440180" y="1325880"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="文本框 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC0D8ACE-B19C-4D69-8DC1-03E4D2606503}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="944880" y="1920240"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="文本框 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C234341-46E4-41DC-9ADB-20A2893B79A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="777240" y="2887980"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="文本框 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3437A78-97B3-41DE-960E-8185C04E9819}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1455420" y="2887980"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="文本框 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3474A1C3-8638-450D-8FA9-EF0A22D504F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1958340" y="1920240"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="文本框 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7C049FC-3026-492B-AF98-224A1038913A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="2887980"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="文本框 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{301202C3-5F3C-46BA-9DA9-9CD6F61BAD63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2446020" y="2887980"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="文本框 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCFCDF18-BC71-467B-97A3-5E5310A960AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2956560" y="2887980"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>11</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="文本框 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{620023D8-06EA-4933-BA63-AAD540775FDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3505200" y="2887980"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>12</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="文本框 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52727BB3-AE43-4AD1-8BBC-EC45670C4926}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3368040" y="1325880"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="文本框 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B41D96CE-392A-4C1B-B951-F86040E0E0B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2903220" y="1920240"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="文本框 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{052A07B4-33D4-4832-B5F6-ADE8BBE1096E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3825240" y="1920240"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>13</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1215333" cy="283411"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="文本框 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A05B65C9-CF84-42EA-8366-355212B36D8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2278380" y="3246120"/>
+          <a:ext cx="1215333" cy="283411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>二叉树</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>前序遍历</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>283992</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152982</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="椭圆 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E02916-EF90-4077-AD25-52084DB35EB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2644140" y="627379"/>
+          <a:ext cx="413532" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>45632</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>127291</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>109656</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="135" name="直线箭头连接符 266">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84927ED4-A598-47E2-886B-EB4EFA9AD2E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="134" idx="2"/>
+          <a:endCxn id="136" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2026832" y="828331"/>
+          <a:ext cx="617308" cy="508145"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>106192</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>102182</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="椭圆 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB59C4B0-4E9F-4962-BF42-9A185DCA9A36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1673860" y="1277619"/>
+          <a:ext cx="413532" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76782</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="椭圆 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C52D6C1B-4040-41E0-8833-5AD95D81975F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3642360" y="1252219"/>
+          <a:ext cx="419100" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>283992</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>127291</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>137576</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>84256</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="138" name="直线箭头连接符 278">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{915A399A-C45F-489F-A0C6-39F7549D6BBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="134" idx="6"/>
+          <a:endCxn id="137" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3057672" y="828331"/>
+          <a:ext cx="646064" cy="482745"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>341926</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>43325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>149460</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>10596</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="139" name="直线箭头连接符 281">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2F9391B-4162-4900-9839-E0605CE40523}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="136" idx="3"/>
+          <a:endCxn id="140" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1530646" y="1620665"/>
+          <a:ext cx="203774" cy="317791"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4787</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>3122</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="椭圆 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8333FB9C-D485-4AE0-897E-24245A9A82D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1186180" y="1879599"/>
+          <a:ext cx="403567" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>182033</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>199325</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>3122</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="椭圆 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A9377C-7BF2-46DA-B1BD-1FB9D738B26B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2163233" y="1879599"/>
+          <a:ext cx="413532" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>45632</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>43325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>242593</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>10596</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="142" name="直线箭头连接符 284">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3BBBF44-FBF7-4B3D-8B27-ED82B1ADA1DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="136" idx="5"/>
+          <a:endCxn id="141" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2026832" y="1620665"/>
+          <a:ext cx="196961" cy="317791"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>308366</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>119525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>56561</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="143" name="直线箭头连接符 285">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28C99304-0896-42FC-988B-ECA66BD28EAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="140" idx="3"/>
+          <a:endCxn id="144" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1100846" y="2222645"/>
+          <a:ext cx="144435" cy="281211"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>118892</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="椭圆 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C02AE74-C2D0-4BF5-ABB5-D1FED8DD1011}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="894080" y="2503856"/>
+          <a:ext cx="413532" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>204434</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>221726</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="椭圆 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34BD7CBA-F989-44AA-AB5A-397CAD489C54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1393154" y="2503856"/>
+          <a:ext cx="413532" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>341926</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>119525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14960</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="146" name="直线箭头连接符 288">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C07E6046-526C-43F7-A229-A1198CB1B1F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="140" idx="5"/>
+          <a:endCxn id="145" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1530646" y="2222645"/>
+          <a:ext cx="69274" cy="281211"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>357598</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>17925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>137576</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>10596</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="147" name="直线箭头连接符 289">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19E5DE0E-AC1D-44FD-9E9A-BD648A3B0CAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="137" idx="3"/>
+          <a:endCxn id="148" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3527518" y="1595265"/>
+          <a:ext cx="176218" cy="343191"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>11006</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>20824</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>3122</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="148" name="椭圆 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C58A392-E295-4969-A383-8857FC19773A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3180926" y="1879599"/>
+          <a:ext cx="406058" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>149860</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>167152</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>3122</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="椭圆 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00AF1BB4-67B5-4452-8F4A-9A7D340D79E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4112260" y="1879599"/>
+          <a:ext cx="413532" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="700" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>37684</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>17925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>210420</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>10596</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="150" name="直线箭头连接符 292">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{458E2E94-C484-4C60-B6E5-D71D631B7E31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="137" idx="5"/>
+          <a:endCxn id="149" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000084" y="1595265"/>
+          <a:ext cx="172736" cy="343191"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>117794</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>119525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>242593</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="151" name="直线箭头连接符 293">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9AE9649-1D52-4D67-B5CB-16A399F9A027}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="141" idx="3"/>
+          <a:endCxn id="152" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2098994" y="2222645"/>
+          <a:ext cx="124799" cy="281211"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>307268</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>324560</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="152" name="椭圆 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FAA48B0-831D-4920-B6CB-819BF39A3B93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1892228" y="2503856"/>
+          <a:ext cx="413532" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>13862</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>31154</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="153" name="椭圆 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34AE30DB-2765-443E-9BB5-11851E123AA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2391302" y="2503856"/>
+          <a:ext cx="413532" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>11</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>138765</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>119525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>220628</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="154" name="直线箭头连接符 349">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B97B8161-7949-4888-A87B-87E52D80EFFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="141" idx="5"/>
+          <a:endCxn id="153" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2516205" y="2222645"/>
+          <a:ext cx="81863" cy="281211"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323462</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>119525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>70472</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="155" name="直线箭头连接符 350">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F62CF3A3-2E61-4513-9817-516EC440EC0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="148" idx="3"/>
+          <a:endCxn id="156" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3097142" y="2222645"/>
+          <a:ext cx="143250" cy="281211"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>116696</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133988</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="156" name="椭圆 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DEAF255-98C9-4B76-90E5-F10A8B05D128}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2890376" y="2503856"/>
+          <a:ext cx="413532" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>12</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>265250</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>282542</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="157" name="椭圆 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57C3A25E-4665-4B82-B51E-8639AAECA2FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3435170" y="2503856"/>
+          <a:ext cx="413532" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>13</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>357598</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>119525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>75776</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="158" name="直线箭头连接符 353">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{267BDA6B-9AFB-435F-8DC0-08CBC27DFE86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="148" idx="5"/>
+          <a:endCxn id="157" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3527518" y="2222645"/>
+          <a:ext cx="114418" cy="281211"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="文本框 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECE0982F-FB82-4F68-B5EA-8705EB103A63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2491740" y="464820"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="160" name="文本框 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{208188C1-7B88-4167-8E50-EC596AA536D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1440180" y="1325880"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="文本框 160">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D24B913C-3CED-4C90-B966-889EBF223DB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="944880" y="1920240"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="162" name="文本框 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA8EB644-5970-45A0-99D0-9973D87F54C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="777240" y="6568440"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="163" name="文本框 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1860C821-5EFD-4EF1-BF7C-3E0937D8A70A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1455420" y="2887980"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="文本框 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB06D60F-1E37-4B5E-9C1E-952B44A91CA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1958340" y="1920240"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="165" name="文本框 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7103DA3-B163-448F-A7D4-6344DFFA2448}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="2887980"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="166" name="文本框 165">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{795216D0-FB12-4321-BA18-C8745A29718A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2446020" y="2887980"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="文本框 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53C69D6F-9994-40FE-AA4C-513552CF5437}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2956560" y="2887980"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>11</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="168" name="文本框 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{834DC185-0CF1-4A12-9DE8-914546B28A08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3505200" y="2887980"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>12</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="169" name="文本框 168">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2790DC6-A5BD-416C-ACB7-9238F640F5C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3368040" y="1325880"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="170" name="文本框 169">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4819FEEF-1B56-4E6B-8833-93A8E23B2EB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2903220" y="1920240"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="171" name="文本框 170">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EAF9BE4-FFA0-4378-A5F2-CE61A7C24F0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3825240" y="1920240"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>13</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1215333" cy="283411"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="172" name="文本框 171">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9DA1CEF-38F2-4E7C-BF8A-52FC38A131AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2278380" y="6926580"/>
+          <a:ext cx="1215333" cy="283411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>二叉树</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>中序遍历</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>283992</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152982</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="173" name="椭圆 172">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F3EE198-25AF-4C21-A600-18132D128321}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2644140" y="627379"/>
+          <a:ext cx="413532" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>45632</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>127291</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>109656</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="174" name="直线箭头连接符 266">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB412519-C6FB-4F8E-82F9-9EFBF48DD111}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="173" idx="2"/>
+          <a:endCxn id="175" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2026832" y="828331"/>
+          <a:ext cx="617308" cy="508145"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>106192</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>102182</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="175" name="椭圆 174">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BB7953B-2E6F-401A-952B-1EF335C6F935}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1673860" y="1277619"/>
+          <a:ext cx="413532" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76782</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="176" name="椭圆 175">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9F0D874-CA07-45B6-9659-C89B5FFD518A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3642360" y="1252219"/>
+          <a:ext cx="419100" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>283992</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>127291</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>137576</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>84256</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="177" name="直线箭头连接符 278">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC6486FB-F786-4367-9E45-40B752B83F3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="173" idx="6"/>
+          <a:endCxn id="176" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3057672" y="828331"/>
+          <a:ext cx="646064" cy="482745"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>341926</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>43325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>149460</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>10596</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="178" name="直线箭头连接符 281">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14FE78CE-5795-4780-AC38-ADBF77F3825F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="175" idx="3"/>
+          <a:endCxn id="179" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1530646" y="1620665"/>
+          <a:ext cx="203774" cy="317791"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4787</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>3122</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="179" name="椭圆 178">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B89A5879-6152-449F-8876-4E03632969DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1186180" y="1879599"/>
+          <a:ext cx="403567" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>182033</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>199325</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>3122</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="180" name="椭圆 179">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F024364-B935-4A0B-B037-AA4328D3F6C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2163233" y="1879599"/>
+          <a:ext cx="413532" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>45632</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>43325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>242593</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>10596</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="181" name="直线箭头连接符 284">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CF0AF49-7563-41FF-BE45-847B28EE94E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="175" idx="5"/>
+          <a:endCxn id="180" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2026832" y="1620665"/>
+          <a:ext cx="196961" cy="317791"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>308366</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>119525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>56561</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="182" name="直线箭头连接符 285">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE18CE3D-211E-419D-A0A1-38BC2F39ADFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="179" idx="3"/>
+          <a:endCxn id="183" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1100846" y="2222645"/>
+          <a:ext cx="144435" cy="281211"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>118892</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="183" name="椭圆 182">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C96257A-CA19-49CA-BD10-26452FBB4ED9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="894080" y="2503856"/>
+          <a:ext cx="413532" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>204434</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>221726</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="184" name="椭圆 183">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBA3FDD9-68B1-44DC-930B-09B674CD2051}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1393154" y="2503856"/>
+          <a:ext cx="413532" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>341926</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>119525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14960</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="185" name="直线箭头连接符 288">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6FC398-BEAF-440B-802C-63ADA36345E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="179" idx="5"/>
+          <a:endCxn id="184" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1530646" y="2222645"/>
+          <a:ext cx="69274" cy="281211"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>357598</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>17925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>137576</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>10596</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="186" name="直线箭头连接符 289">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C5D2EAF-6930-417A-A936-A34ADB9B30D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="176" idx="3"/>
+          <a:endCxn id="187" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3527518" y="1595265"/>
+          <a:ext cx="176218" cy="343191"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>11006</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>20824</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>3122</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="187" name="椭圆 186">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4139376A-41C4-4D58-97B7-6184E3CFBFE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3180926" y="1879599"/>
+          <a:ext cx="406058" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>149860</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>167152</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>3122</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="188" name="椭圆 187">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68B42C2E-2182-4C46-A9E2-937C52496BCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4112260" y="1879599"/>
+          <a:ext cx="413532" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="700" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>37684</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>17925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>210420</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>10596</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="189" name="直线箭头连接符 292">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{485CA809-14F6-4F77-A7F9-547D3522EA31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="176" idx="5"/>
+          <a:endCxn id="188" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000084" y="1595265"/>
+          <a:ext cx="172736" cy="343191"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>117794</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>119525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>242593</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="190" name="直线箭头连接符 293">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{016D964A-070C-4588-940B-B772C24D6A9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="180" idx="3"/>
+          <a:endCxn id="191" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2098994" y="2222645"/>
+          <a:ext cx="124799" cy="281211"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>307268</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>324560</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="191" name="椭圆 190">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC6C8B3-534D-49B9-B9DB-E070703B93BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1892228" y="2503856"/>
+          <a:ext cx="413532" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>13862</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>31154</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="192" name="椭圆 191">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C57276A6-7A3C-492B-86CF-0EEF8FA47BBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2391302" y="2503856"/>
+          <a:ext cx="413532" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>11</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>138765</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>119525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>220628</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="193" name="直线箭头连接符 349">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C889FAE-28B1-4E94-AC0B-F1BFD3A45FE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="180" idx="5"/>
+          <a:endCxn id="192" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2516205" y="2222645"/>
+          <a:ext cx="81863" cy="281211"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323462</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>119525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>70472</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="194" name="直线箭头连接符 350">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A4DF47B-BFE2-4683-B272-48B44C3FD46E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="187" idx="3"/>
+          <a:endCxn id="195" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3097142" y="2222645"/>
+          <a:ext cx="143250" cy="281211"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>116696</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133988</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="195" name="椭圆 194">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D8B993E-85C8-44CE-9DDA-C1DA772F736C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2890376" y="2503856"/>
+          <a:ext cx="413532" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>12</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>265250</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>282542</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="196" name="椭圆 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D15C0772-FAC9-4762-A1A0-E9A87FFC7E56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3435170" y="2503856"/>
+          <a:ext cx="413532" cy="401903"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="700" b="0" i="0">
+              <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>13</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0" i="0">
+            <a:latin typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="Songti SC" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>357598</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>119525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>75776</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>50216</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="197" name="直线箭头连接符 353">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BBB45BD-AE66-4609-8E45-2D79F1E31103}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="187" idx="5"/>
+          <a:endCxn id="196" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3527518" y="2222645"/>
+          <a:ext cx="114418" cy="281211"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="198" name="文本框 197">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BC1615B-B035-4B32-B574-FC2F7911A5A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2491740" y="464820"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="199" name="文本框 198">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0118EAED-81C4-4656-9ABF-C3BA2E1DD090}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1440180" y="1325880"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="200" name="文本框 199">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3CB6219-7F05-434E-8D5C-7595A46BD92E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="944880" y="1920240"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="201" name="文本框 200">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D46D9CA2-2EFD-4FB9-BC8F-4C08A3540A96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="777240" y="2887980"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="202" name="文本框 201">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4D16D0C-D117-4D69-97CE-8CEFC3C3E65F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1455420" y="2887980"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="203" name="文本框 202">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BCE4B69-C1CD-4CB8-BD0C-C6D621A69BA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1958340" y="1920240"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="204" name="文本框 203">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86C90C6C-81C5-4EEE-998D-9870520CDD33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="2887980"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="205" name="文本框 204">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E81CBA6-F720-4C6A-B6DE-CBDF1A90B72E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2446020" y="2887980"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="206" name="文本框 205">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{697E6216-DDF3-44CB-83CA-888B0EDE1F0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2956560" y="2887980"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>11</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="207" name="文本框 206">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44EB863B-63F5-4E29-813D-036167ECD62A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3505200" y="2887980"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>12</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="208" name="文本框 207">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34476EEF-A60D-4266-83AC-736E6FE832C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3368040" y="1325880"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="209" name="文本框 208">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77E7A3E7-C482-4766-BAD2-34269544278A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2903220" y="1920240"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="210" name="文本框 209">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E1D4D69-0D6E-4263-A71F-68610AF85C71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3825240" y="1920240"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>13</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1215333" cy="283411"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="211" name="文本框 210">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B75AB5A-55D4-492B-B7AA-B24CB7AD3AB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2278380" y="10607040"/>
+          <a:ext cx="1215333" cy="283411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>二叉树</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>后序遍历</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -49066,23 +56701,23 @@
       <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8"/>
   <cols>
-    <col min="4" max="9" width="5.83203125" customWidth="1"/>
+    <col min="4" max="9" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="13:25" s="5" customFormat="1" ht="22"/>
-    <row r="2" spans="13:25" s="5" customFormat="1" ht="22"/>
-    <row r="3" spans="13:25" s="5" customFormat="1" ht="22"/>
-    <row r="4" spans="13:25" s="5" customFormat="1" ht="22"/>
-    <row r="5" spans="13:25" s="5" customFormat="1" ht="22"/>
-    <row r="6" spans="13:25" s="5" customFormat="1" ht="22">
+    <row r="1" spans="13:25" s="5" customFormat="1" ht="17.399999999999999"/>
+    <row r="2" spans="13:25" s="5" customFormat="1" ht="17.399999999999999"/>
+    <row r="3" spans="13:25" s="5" customFormat="1" ht="17.399999999999999"/>
+    <row r="4" spans="13:25" s="5" customFormat="1" ht="17.399999999999999"/>
+    <row r="5" spans="13:25" s="5" customFormat="1" ht="17.399999999999999"/>
+    <row r="6" spans="13:25" s="5" customFormat="1" ht="17.399999999999999">
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
     </row>
-    <row r="7" spans="13:25" s="5" customFormat="1" ht="22">
+    <row r="7" spans="13:25" s="5" customFormat="1" ht="17.399999999999999">
       <c r="M7" s="6"/>
       <c r="N7" s="4"/>
       <c r="P7" s="6"/>
@@ -49093,7 +56728,7 @@
       <c r="W7" s="4"/>
       <c r="Y7" s="6"/>
     </row>
-    <row r="8" spans="13:25" s="5" customFormat="1" ht="22">
+    <row r="8" spans="13:25" s="5" customFormat="1" ht="17.399999999999999">
       <c r="M8" s="6"/>
       <c r="N8" s="4"/>
       <c r="P8" s="6"/>
@@ -49104,7 +56739,7 @@
       <c r="W8" s="4"/>
       <c r="Y8" s="6"/>
     </row>
-    <row r="9" spans="13:25" s="5" customFormat="1" ht="22">
+    <row r="9" spans="13:25" s="5" customFormat="1" ht="17.399999999999999">
       <c r="M9" s="6"/>
       <c r="N9" s="4"/>
       <c r="P9" s="6"/>
@@ -49115,7 +56750,7 @@
       <c r="W9" s="4"/>
       <c r="Y9" s="6"/>
     </row>
-    <row r="10" spans="13:25" s="5" customFormat="1" ht="24">
+    <row r="10" spans="13:25" s="5" customFormat="1" ht="20.399999999999999">
       <c r="M10" s="6"/>
       <c r="N10" s="4"/>
       <c r="P10" s="6"/>
@@ -49128,7 +56763,7 @@
       <c r="W10" s="4"/>
       <c r="Y10" s="6"/>
     </row>
-    <row r="11" spans="13:25" s="5" customFormat="1" ht="24">
+    <row r="11" spans="13:25" s="5" customFormat="1" ht="20.399999999999999">
       <c r="M11" s="6"/>
       <c r="N11" s="4"/>
       <c r="P11" s="8">
@@ -49145,7 +56780,7 @@
       <c r="W11" s="4"/>
       <c r="Y11" s="6"/>
     </row>
-    <row r="12" spans="13:25" s="5" customFormat="1" ht="24">
+    <row r="12" spans="13:25" s="5" customFormat="1" ht="20.399999999999999">
       <c r="M12" s="7">
         <v>2</v>
       </c>
@@ -49166,7 +56801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="13:25" s="5" customFormat="1" ht="24">
+    <row r="13" spans="13:25" s="5" customFormat="1" ht="20.399999999999999">
       <c r="M13" s="7">
         <v>11</v>
       </c>
@@ -49187,13 +56822,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="13:25" s="5" customFormat="1" ht="22">
+    <row r="14" spans="13:25" s="5" customFormat="1" ht="17.399999999999999">
       <c r="N14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="T14" s="4"/>
       <c r="W14" s="4"/>
     </row>
-    <row r="15" spans="13:25" s="5" customFormat="1" ht="24">
+    <row r="15" spans="13:25" s="5" customFormat="1" ht="20.399999999999999">
       <c r="M15" s="9" t="s">
         <v>0</v>
       </c>
@@ -49215,45 +56850,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="13:25" s="5" customFormat="1" ht="22">
+    <row r="16" spans="13:25" s="5" customFormat="1" ht="17.399999999999999">
       <c r="N16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="T16" s="4"/>
       <c r="W16" s="4"/>
     </row>
-    <row r="17" spans="11:26" s="5" customFormat="1" ht="22">
+    <row r="17" spans="11:26" s="5" customFormat="1" ht="17.399999999999999">
       <c r="T17" s="4"/>
       <c r="W17" s="4"/>
     </row>
-    <row r="18" spans="11:26" s="5" customFormat="1" ht="22">
+    <row r="18" spans="11:26" s="5" customFormat="1" ht="17.399999999999999">
       <c r="T18" s="4"/>
       <c r="W18" s="4"/>
     </row>
-    <row r="19" spans="11:26" s="5" customFormat="1" ht="22">
+    <row r="19" spans="11:26" s="5" customFormat="1" ht="17.399999999999999">
       <c r="T19" s="4"/>
       <c r="W19" s="4"/>
     </row>
-    <row r="20" spans="11:26" s="5" customFormat="1" ht="22">
+    <row r="20" spans="11:26" s="5" customFormat="1" ht="17.399999999999999">
       <c r="T20" s="4"/>
       <c r="W20" s="4"/>
     </row>
-    <row r="21" spans="11:26" s="5" customFormat="1" ht="22">
+    <row r="21" spans="11:26" s="5" customFormat="1" ht="17.399999999999999">
       <c r="T21" s="4"/>
       <c r="W21" s="4"/>
     </row>
-    <row r="22" spans="11:26" s="5" customFormat="1" ht="22">
+    <row r="22" spans="11:26" s="5" customFormat="1" ht="17.399999999999999">
       <c r="T22" s="4"/>
     </row>
-    <row r="23" spans="11:26" s="5" customFormat="1" ht="22">
+    <row r="23" spans="11:26" s="5" customFormat="1" ht="17.399999999999999">
       <c r="T23" s="4"/>
     </row>
-    <row r="24" spans="11:26" s="5" customFormat="1" ht="22"/>
-    <row r="25" spans="11:26" s="5" customFormat="1" ht="22"/>
-    <row r="26" spans="11:26" s="5" customFormat="1" ht="22"/>
-    <row r="27" spans="11:26" s="5" customFormat="1" ht="22"/>
-    <row r="28" spans="11:26" s="5" customFormat="1" ht="22"/>
-    <row r="29" spans="11:26" s="5" customFormat="1" ht="22"/>
-    <row r="30" spans="11:26" ht="22">
+    <row r="24" spans="11:26" s="5" customFormat="1" ht="17.399999999999999"/>
+    <row r="25" spans="11:26" s="5" customFormat="1" ht="17.399999999999999"/>
+    <row r="26" spans="11:26" s="5" customFormat="1" ht="17.399999999999999"/>
+    <row r="27" spans="11:26" s="5" customFormat="1" ht="17.399999999999999"/>
+    <row r="28" spans="11:26" s="5" customFormat="1" ht="17.399999999999999"/>
+    <row r="29" spans="11:26" s="5" customFormat="1" ht="17.399999999999999"/>
+    <row r="30" spans="11:26" ht="17.399999999999999">
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
@@ -49271,7 +56906,7 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
     </row>
-    <row r="35" spans="3:10" ht="16" thickBot="1"/>
+    <row r="35" spans="3:10" ht="14.4" thickBot="1"/>
     <row r="36" spans="3:10" ht="57" customHeight="1" thickBot="1">
       <c r="C36" s="3"/>
       <c r="D36" s="10"/>
@@ -49286,7 +56921,7 @@
       </c>
       <c r="J36" s="3"/>
     </row>
-    <row r="39" spans="3:10" ht="16" thickBot="1"/>
+    <row r="39" spans="3:10" ht="14.4" thickBot="1"/>
     <row r="40" spans="3:10" ht="57" customHeight="1" thickBot="1">
       <c r="C40" s="3"/>
       <c r="D40" s="10"/>
@@ -49303,7 +56938,7 @@
       </c>
       <c r="J40" s="3"/>
     </row>
-    <row r="43" spans="3:10" ht="16" thickBot="1"/>
+    <row r="43" spans="3:10" ht="14.4" thickBot="1"/>
     <row r="44" spans="3:10" ht="57" customHeight="1" thickBot="1">
       <c r="C44" s="3"/>
       <c r="D44" s="10"/>
@@ -49322,7 +56957,7 @@
       </c>
       <c r="J44" s="3"/>
     </row>
-    <row r="47" spans="3:10" ht="16" thickBot="1"/>
+    <row r="47" spans="3:10" ht="14.4" thickBot="1"/>
     <row r="48" spans="3:10" ht="57" customHeight="1" thickBot="1">
       <c r="C48" s="3"/>
       <c r="D48" s="10"/>
@@ -49339,7 +56974,7 @@
       </c>
       <c r="J48" s="3"/>
     </row>
-    <row r="51" spans="3:10" ht="16" thickBot="1"/>
+    <row r="51" spans="3:10" ht="14.4" thickBot="1"/>
     <row r="52" spans="3:10" ht="57" customHeight="1" thickBot="1">
       <c r="C52" s="3"/>
       <c r="D52" s="10"/>
@@ -49362,15 +56997,87 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644E5244-ABF6-4DFC-B5A9-35FCAD5CDE5A}">
+  <dimension ref="A3:A62"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AE30" sqref="AE30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="3" customFormat="1"/>
+    <row r="4" customFormat="1"/>
+    <row r="5" customFormat="1"/>
+    <row r="6" customFormat="1"/>
+    <row r="7" customFormat="1"/>
+    <row r="8" customFormat="1"/>
+    <row r="9" customFormat="1"/>
+    <row r="10" customFormat="1"/>
+    <row r="11" customFormat="1"/>
+    <row r="12" customFormat="1"/>
+    <row r="13" customFormat="1"/>
+    <row r="14" customFormat="1"/>
+    <row r="15" customFormat="1"/>
+    <row r="16" customFormat="1"/>
+    <row r="17" customFormat="1"/>
+    <row r="18" customFormat="1"/>
+    <row r="19" customFormat="1"/>
+    <row r="20" customFormat="1"/>
+    <row r="24" customFormat="1"/>
+    <row r="25" customFormat="1"/>
+    <row r="26" customFormat="1"/>
+    <row r="27" customFormat="1"/>
+    <row r="28" customFormat="1"/>
+    <row r="29" customFormat="1"/>
+    <row r="30" customFormat="1"/>
+    <row r="31" customFormat="1"/>
+    <row r="32" customFormat="1"/>
+    <row r="33" customFormat="1"/>
+    <row r="34" customFormat="1"/>
+    <row r="35" customFormat="1"/>
+    <row r="36" customFormat="1"/>
+    <row r="37" customFormat="1"/>
+    <row r="38" customFormat="1"/>
+    <row r="39" customFormat="1"/>
+    <row r="40" customFormat="1"/>
+    <row r="41" customFormat="1"/>
+    <row r="45" customFormat="1"/>
+    <row r="46" customFormat="1"/>
+    <row r="47" customFormat="1"/>
+    <row r="48" customFormat="1"/>
+    <row r="49" customFormat="1"/>
+    <row r="50" customFormat="1"/>
+    <row r="51" customFormat="1"/>
+    <row r="52" customFormat="1"/>
+    <row r="53" customFormat="1"/>
+    <row r="54" customFormat="1"/>
+    <row r="55" customFormat="1"/>
+    <row r="56" customFormat="1"/>
+    <row r="57" customFormat="1"/>
+    <row r="58" customFormat="1"/>
+    <row r="59" customFormat="1"/>
+    <row r="60" customFormat="1"/>
+    <row r="61" customFormat="1"/>
+    <row r="62" customFormat="1"/>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BAF9AF-ACC1-EC41-890D-538B5AD38D0F}">
   <dimension ref="H17:AN58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="L73" sqref="L73"/>
+    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67:N85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="17" spans="8:32">
       <c r="AF17" s="2"/>
@@ -49431,7 +57138,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="8:32" ht="26" customHeight="1">
+    <row r="21" spans="8:32" ht="25.95" customHeight="1">
       <c r="H21" s="2" t="s">
         <v>4</v>
       </c>
@@ -49504,94 +57211,94 @@
       <selection activeCell="V68" sqref="V68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="19.95" customHeight="1"/>
   <sheetData>
-    <row r="3" spans="53:54" ht="20" customHeight="1">
+    <row r="3" spans="53:54" ht="19.95" customHeight="1">
       <c r="BA3" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="53:54" ht="20" customHeight="1">
+    <row r="4" spans="53:54" ht="19.95" customHeight="1">
       <c r="BB4" s="18"/>
     </row>
-    <row r="5" spans="53:54" ht="20" customHeight="1">
+    <row r="5" spans="53:54" ht="19.95" customHeight="1">
       <c r="BB5" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="53:53" ht="20" customHeight="1">
+    <row r="31" spans="53:53" ht="19.95" customHeight="1">
       <c r="BA31" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="53:53" ht="20" customHeight="1">
+    <row r="32" spans="53:53" ht="19.95" customHeight="1">
       <c r="BA32" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="53:54" ht="20" customHeight="1">
+    <row r="33" spans="53:54" ht="19.95" customHeight="1">
       <c r="BA33" s="18"/>
     </row>
-    <row r="34" spans="53:54" ht="20" customHeight="1">
+    <row r="34" spans="53:54" ht="19.95" customHeight="1">
       <c r="BA34" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="53:54" ht="20" customHeight="1">
+    <row r="44" spans="53:54" ht="19.95" customHeight="1">
       <c r="BB44" s="18"/>
     </row>
-    <row r="45" spans="53:54" ht="20" customHeight="1">
+    <row r="45" spans="53:54" ht="19.95" customHeight="1">
       <c r="BB45" s="18"/>
     </row>
-    <row r="46" spans="53:54" ht="20" customHeight="1">
+    <row r="46" spans="53:54" ht="19.95" customHeight="1">
       <c r="BB46" s="19"/>
     </row>
-    <row r="64" spans="34:34" ht="20" customHeight="1">
+    <row r="64" spans="34:34" ht="19.95" customHeight="1">
       <c r="AH64" s="2"/>
     </row>
     <row r="81" ht="21" customHeight="1"/>
-    <row r="104" spans="53:53" ht="20" customHeight="1">
+    <row r="104" spans="53:53" ht="19.95" customHeight="1">
       <c r="BA104" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="53:53" ht="20" customHeight="1">
+    <row r="105" spans="53:53" ht="19.95" customHeight="1">
       <c r="BA105" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="53:53" ht="20" customHeight="1">
+    <row r="106" spans="53:53" ht="19.95" customHeight="1">
       <c r="BA106" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="53:53" ht="20" customHeight="1">
+    <row r="108" spans="53:53" ht="19.95" customHeight="1">
       <c r="BA108" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="57:57" ht="20" customHeight="1">
+    <row r="118" spans="57:57" ht="19.95" customHeight="1">
       <c r="BE118" s="18"/>
     </row>
-    <row r="162" spans="53:57" ht="20" customHeight="1">
+    <row r="162" spans="53:57" ht="19.95" customHeight="1">
       <c r="BA162" s="18"/>
     </row>
-    <row r="163" spans="53:57" ht="20" customHeight="1">
+    <row r="163" spans="53:57" ht="19.95" customHeight="1">
       <c r="BA163" s="18"/>
     </row>
-    <row r="164" spans="53:57" ht="20" customHeight="1">
+    <row r="164" spans="53:57" ht="19.95" customHeight="1">
       <c r="BA164" s="18"/>
     </row>
-    <row r="176" spans="53:57" ht="20" customHeight="1">
+    <row r="176" spans="53:57" ht="19.95" customHeight="1">
       <c r="BE176" s="18"/>
     </row>
-    <row r="177" spans="53:57" ht="20" customHeight="1">
+    <row r="177" spans="53:57" ht="19.95" customHeight="1">
       <c r="BE177" s="18"/>
     </row>
-    <row r="178" spans="53:57" ht="20" customHeight="1">
+    <row r="178" spans="53:57" ht="19.95" customHeight="1">
       <c r="BE178" s="19"/>
     </row>
-    <row r="191" spans="53:57" ht="20" customHeight="1">
+    <row r="191" spans="53:57" ht="19.95" customHeight="1">
       <c r="BA191" s="20" t="s">
         <v>14</v>
       </c>
@@ -49608,33 +57315,33 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="53:57" ht="20" customHeight="1">
-      <c r="BA192" s="24" t="s">
+    <row r="192" spans="53:57" ht="19.95" customHeight="1">
+      <c r="BA192" s="32" t="s">
         <v>19</v>
       </c>
       <c r="BB192" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="BC192" s="25" t="s">
+      <c r="BC192" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="BD192" s="25" t="s">
+      <c r="BD192" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="BE192" s="25" t="s">
+      <c r="BE192" s="33" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="193" spans="53:57" ht="20" customHeight="1">
-      <c r="BA193" s="24"/>
+    <row r="193" spans="53:57" ht="19.95" customHeight="1">
+      <c r="BA193" s="32"/>
       <c r="BB193" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="BC193" s="25"/>
-      <c r="BD193" s="25"/>
-      <c r="BE193" s="25"/>
+      <c r="BC193" s="33"/>
+      <c r="BD193" s="33"/>
+      <c r="BE193" s="33"/>
     </row>
-    <row r="194" spans="53:57" ht="20" customHeight="1">
+    <row r="194" spans="53:57" ht="19.95" customHeight="1">
       <c r="BA194" s="20" t="s">
         <v>25</v>
       </c>
@@ -49651,7 +57358,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="53:57" ht="20" customHeight="1">
+    <row r="195" spans="53:57" ht="19.95" customHeight="1">
       <c r="BA195" s="20" t="s">
         <v>29</v>
       </c>
@@ -49668,7 +57375,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="196" spans="53:57" ht="20" customHeight="1">
+    <row r="196" spans="53:57" ht="19.95" customHeight="1">
       <c r="BA196" s="22" t="s">
         <v>34</v>
       </c>
@@ -49681,65 +57388,65 @@
         <v>33</v>
       </c>
     </row>
-    <row r="197" spans="53:57" ht="20" customHeight="1">
-      <c r="BA197" s="26" t="s">
+    <row r="197" spans="53:57" ht="19.95" customHeight="1">
+      <c r="BA197" s="34" t="s">
         <v>36</v>
       </c>
       <c r="BB197" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="BC197" s="25" t="s">
+      <c r="BC197" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="BD197" s="25" t="s">
+      <c r="BD197" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="BE197" s="27" t="s">
+      <c r="BE197" s="35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="198" spans="53:57" ht="20" customHeight="1">
-      <c r="BA198" s="26"/>
+    <row r="198" spans="53:57" ht="19.95" customHeight="1">
+      <c r="BA198" s="34"/>
       <c r="BB198" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="BC198" s="25"/>
-      <c r="BD198" s="25"/>
-      <c r="BE198" s="27"/>
+      <c r="BC198" s="33"/>
+      <c r="BD198" s="33"/>
+      <c r="BE198" s="35"/>
     </row>
-    <row r="234" spans="53:53" ht="20" customHeight="1">
+    <row r="234" spans="53:53" ht="19.95" customHeight="1">
       <c r="BA234" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="235" spans="53:53" ht="20" customHeight="1">
+    <row r="235" spans="53:53" ht="19.95" customHeight="1">
       <c r="BA235" s="23"/>
     </row>
-    <row r="236" spans="53:53" ht="20" customHeight="1">
+    <row r="236" spans="53:53" ht="19.95" customHeight="1">
       <c r="BA236" s="23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="237" spans="53:53" ht="20" customHeight="1">
+    <row r="237" spans="53:53" ht="19.95" customHeight="1">
       <c r="BA237" s="23"/>
     </row>
-    <row r="238" spans="53:53" ht="20" customHeight="1">
+    <row r="238" spans="53:53" ht="19.95" customHeight="1">
       <c r="BA238" s="23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="239" spans="53:53" ht="20" customHeight="1">
+    <row r="239" spans="53:53" ht="19.95" customHeight="1">
       <c r="BA239" s="23"/>
     </row>
-    <row r="240" spans="53:53" ht="20" customHeight="1">
+    <row r="240" spans="53:53" ht="19.95" customHeight="1">
       <c r="BA240" s="23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="241" spans="53:53" ht="20" customHeight="1">
+    <row r="241" spans="53:53" ht="19.95" customHeight="1">
       <c r="BA241" s="23"/>
     </row>
-    <row r="242" spans="53:53" ht="20" customHeight="1">
+    <row r="242" spans="53:53" ht="19.95" customHeight="1">
       <c r="BA242" s="23" t="s">
         <v>45</v>
       </c>
@@ -49773,7 +57480,7 @@
       <selection activeCell="AP72" sqref="AP72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="13.8"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -49789,7 +57496,7 @@
       <selection activeCell="AP30" sqref="AP30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="13.8"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -49805,7 +57512,7 @@
       <selection activeCell="AA74" sqref="AA74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="4" defaultRowHeight="13.8"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -49821,7 +57528,7 @@
       <selection activeCell="AK108" sqref="AK108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="64" spans="45:45">
       <c r="AS64" s="2"/>
@@ -49842,7 +57549,7 @@
       <selection activeCell="AO23" sqref="AO23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="3.44140625" defaultRowHeight="13.8"/>
   <sheetData/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -49859,716 +57566,720 @@
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="4" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
     <col min="3" max="6" width="11.6640625" customWidth="1"/>
     <col min="12" max="12" width="29.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="28" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="25" customHeight="1">
-      <c r="B2" s="31" t="s">
+    <row r="2" spans="2:17" ht="25.05" customHeight="1">
+      <c r="B2" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="25" customHeight="1">
-      <c r="B3" s="28" t="s">
+    <row r="3" spans="2:17" ht="25.05" customHeight="1">
+      <c r="B3" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="25" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="25" customHeight="1">
-      <c r="B4" s="28" t="s">
+    <row r="4" spans="2:17" ht="25.05" customHeight="1">
+      <c r="B4" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="25" customHeight="1">
-      <c r="B5" s="28" t="s">
+    <row r="5" spans="2:17" ht="25.05" customHeight="1">
+      <c r="B5" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="25" customHeight="1">
-      <c r="B6" s="28" t="s">
+    <row r="6" spans="2:17" ht="25.05" customHeight="1">
+      <c r="B6" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="25" customHeight="1">
-      <c r="B7" s="28" t="s">
+    <row r="7" spans="2:17" ht="25.05" customHeight="1">
+      <c r="B7" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="25" customHeight="1">
-      <c r="B8" s="28" t="s">
+    <row r="8" spans="2:17" ht="25.05" customHeight="1">
+      <c r="B8" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="25" customHeight="1">
-      <c r="B9" s="28" t="s">
+    <row r="9" spans="2:17" ht="25.05" customHeight="1">
+      <c r="B9" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="18">
-      <c r="L14" s="32" t="s">
+    <row r="14" spans="2:17" ht="17.399999999999999">
+      <c r="L14" s="28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="18">
-      <c r="L15" s="35" t="s">
+    <row r="15" spans="2:17" ht="17.399999999999999">
+      <c r="L15" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="M15" s="35" t="s">
+      <c r="M15" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="N15" s="35" t="s">
+      <c r="N15" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="O15" s="35" t="s">
+      <c r="O15" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="P15" s="35" t="s">
+      <c r="P15" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="Q15" s="35" t="s">
+      <c r="Q15" s="31" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="18">
-      <c r="L16" s="33" t="s">
+    <row r="16" spans="2:17" ht="17.399999999999999">
+      <c r="L16" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="M16" s="34" t="s">
+      <c r="M16" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="N16" s="33" t="s">
+      <c r="N16" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="O16" s="33" t="s">
+      <c r="O16" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="P16" s="33" t="s">
+      <c r="P16" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="Q16" s="33" t="s">
+      <c r="Q16" s="29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="12:17" ht="18">
-      <c r="L17" s="33" t="s">
+    <row r="17" spans="12:17" ht="17.399999999999999">
+      <c r="L17" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="M17" s="34" t="s">
+      <c r="M17" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="N17" s="33" t="s">
+      <c r="N17" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="O17" s="33" t="s">
+      <c r="O17" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="P17" s="33" t="s">
+      <c r="P17" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="Q17" s="33" t="s">
+      <c r="Q17" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="12:17" ht="18">
-      <c r="L18" s="33" t="s">
+    <row r="18" spans="12:17" ht="17.399999999999999">
+      <c r="L18" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="M18" s="34" t="s">
+      <c r="M18" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="N18" s="33" t="s">
+      <c r="N18" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="O18" s="33" t="s">
+      <c r="O18" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="P18" s="33" t="s">
+      <c r="P18" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="Q18" s="33" t="s">
+      <c r="Q18" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="12:17" ht="18">
-      <c r="L19" s="33" t="s">
+    <row r="19" spans="12:17" ht="17.399999999999999">
+      <c r="L19" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="M19" s="34" t="s">
+      <c r="M19" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="N19" s="33" t="s">
+      <c r="N19" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="O19" s="33" t="s">
+      <c r="O19" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="P19" s="33" t="s">
+      <c r="P19" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="Q19" s="33" t="s">
+      <c r="Q19" s="29" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="12:17" ht="18">
-      <c r="L20" s="33" t="s">
+    <row r="20" spans="12:17" ht="17.399999999999999">
+      <c r="L20" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="M20" s="33" t="s">
+      <c r="M20" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="N20" s="33" t="s">
+      <c r="N20" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="O20" s="33" t="s">
+      <c r="O20" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="P20" s="33" t="s">
+      <c r="P20" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="Q20" s="33" t="s">
+      <c r="Q20" s="29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="12:17" ht="18">
-      <c r="L22" s="32" t="s">
+    <row r="22" spans="12:17" ht="17.399999999999999">
+      <c r="L22" s="28" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="12:17" ht="18">
-      <c r="L23" s="35" t="s">
+    <row r="23" spans="12:17" ht="17.399999999999999">
+      <c r="L23" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="M23" s="35" t="s">
+      <c r="M23" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="N23" s="35" t="s">
+      <c r="N23" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="O23" s="35" t="s">
+      <c r="O23" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="P23" s="35" t="s">
+      <c r="P23" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="Q23" s="35" t="s">
+      <c r="Q23" s="31" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="12:17" ht="18">
-      <c r="L24" s="33" t="s">
+    <row r="24" spans="12:17" ht="17.399999999999999">
+      <c r="L24" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="M24" s="34" t="s">
+      <c r="M24" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="N24" s="33" t="s">
+      <c r="N24" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="O24" s="33" t="s">
+      <c r="O24" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="P24" s="33" t="s">
+      <c r="P24" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="Q24" s="33" t="s">
+      <c r="Q24" s="29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="12:17" ht="18">
-      <c r="L25" s="33" t="s">
+    <row r="25" spans="12:17" ht="17.399999999999999">
+      <c r="L25" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="M25" s="34" t="s">
+      <c r="M25" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="N25" s="33" t="s">
+      <c r="N25" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="O25" s="33" t="s">
+      <c r="O25" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="P25" s="33" t="s">
+      <c r="P25" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="Q25" s="33" t="s">
+      <c r="Q25" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="12:17" ht="18">
-      <c r="L26" s="33" t="s">
+    <row r="26" spans="12:17" ht="17.399999999999999">
+      <c r="L26" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="M26" s="34" t="s">
+      <c r="M26" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="N26" s="33" t="s">
+      <c r="N26" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="O26" s="33" t="s">
+      <c r="O26" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="P26" s="33" t="s">
+      <c r="P26" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="Q26" s="33" t="s">
+      <c r="Q26" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="12:17" ht="18">
-      <c r="L27" s="33" t="s">
+    <row r="27" spans="12:17" ht="17.399999999999999">
+      <c r="L27" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="M27" s="34" t="s">
+      <c r="M27" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="N27" s="33" t="s">
+      <c r="N27" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="O27" s="33" t="s">
+      <c r="O27" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="P27" s="33" t="s">
+      <c r="P27" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="Q27" s="33" t="s">
+      <c r="Q27" s="29" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="12:17" ht="18">
-      <c r="L28" s="33" t="s">
+    <row r="28" spans="12:17" ht="17.399999999999999">
+      <c r="L28" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="M28" s="33" t="s">
+      <c r="M28" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="N28" s="33" t="s">
+      <c r="N28" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="O28" s="33" t="s">
+      <c r="O28" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="P28" s="33" t="s">
+      <c r="P28" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="Q28" s="33" t="s">
+      <c r="Q28" s="29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="12:17" ht="18">
-      <c r="L30" s="32" t="s">
+    <row r="30" spans="12:17" ht="17.399999999999999">
+      <c r="L30" s="28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="12:17" ht="18">
-      <c r="L31" s="35" t="s">
+    <row r="31" spans="12:17" ht="17.399999999999999">
+      <c r="L31" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="M31" s="35" t="s">
+      <c r="M31" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="N31" s="35" t="s">
+      <c r="N31" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="O31" s="35" t="s">
+      <c r="O31" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="P31" s="35" t="s">
+      <c r="P31" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="Q31" s="35" t="s">
+      <c r="Q31" s="31" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="12:17" ht="18">
-      <c r="L32" s="33" t="s">
+    <row r="32" spans="12:17" ht="17.399999999999999">
+      <c r="L32" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="M32" s="34" t="s">
+      <c r="M32" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="N32" s="33" t="s">
+      <c r="N32" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="O32" s="33" t="s">
+      <c r="O32" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="P32" s="33" t="s">
+      <c r="P32" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="Q32" s="33" t="s">
+      <c r="Q32" s="29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="12:17" ht="18">
-      <c r="L33" s="33" t="s">
+    <row r="33" spans="12:17" ht="17.399999999999999">
+      <c r="L33" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="M33" s="34" t="s">
+      <c r="M33" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="N33" s="33" t="s">
+      <c r="N33" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="O33" s="33" t="s">
+      <c r="O33" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="P33" s="33" t="s">
+      <c r="P33" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="Q33" s="33" t="s">
+      <c r="Q33" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="12:17" ht="18">
-      <c r="L34" s="33" t="s">
+    <row r="34" spans="12:17" ht="17.399999999999999">
+      <c r="L34" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="M34" s="34" t="s">
+      <c r="M34" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="N34" s="33" t="s">
+      <c r="N34" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="O34" s="33" t="s">
+      <c r="O34" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="P34" s="33" t="s">
+      <c r="P34" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="Q34" s="33" t="s">
+      <c r="Q34" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="12:17" ht="18">
-      <c r="L35" s="33" t="s">
+    <row r="35" spans="12:17" ht="17.399999999999999">
+      <c r="L35" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="M35" s="34" t="s">
+      <c r="M35" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="N35" s="33" t="s">
+      <c r="N35" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="O35" s="33" t="s">
+      <c r="O35" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="P35" s="33" t="s">
+      <c r="P35" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="Q35" s="33" t="s">
+      <c r="Q35" s="29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="12:17" ht="18">
-      <c r="L36" s="33" t="s">
+    <row r="36" spans="12:17" ht="17.399999999999999">
+      <c r="L36" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="M36" s="34" t="s">
+      <c r="M36" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="N36" s="33" t="s">
+      <c r="N36" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="O36" s="33" t="s">
+      <c r="O36" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="P36" s="33" t="s">
+      <c r="P36" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="Q36" s="33" t="s">
+      <c r="Q36" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="12:17" ht="18">
-      <c r="L37" s="33" t="s">
+    <row r="37" spans="12:17" ht="17.399999999999999">
+      <c r="L37" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="M37" s="34" t="s">
+      <c r="M37" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="N37" s="33" t="s">
+      <c r="N37" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="O37" s="33" t="s">
+      <c r="O37" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="P37" s="33" t="s">
+      <c r="P37" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="Q37" s="33" t="s">
+      <c r="Q37" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="12:17" ht="18">
-      <c r="L39" s="32" t="s">
+    <row r="39" spans="12:17" ht="17.399999999999999">
+      <c r="L39" s="28" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="12:17" ht="18">
-      <c r="L40" s="35" t="s">
+    <row r="40" spans="12:17" ht="17.399999999999999">
+      <c r="L40" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="M40" s="35" t="s">
+      <c r="M40" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="N40" s="35" t="s">
+      <c r="N40" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="O40" s="35" t="s">
+      <c r="O40" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="P40" s="35" t="s">
+      <c r="P40" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="Q40" s="35" t="s">
+      <c r="Q40" s="31" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="12:17" ht="18">
-      <c r="L41" s="33" t="s">
+    <row r="41" spans="12:17" ht="17.399999999999999">
+      <c r="L41" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="M41" s="34" t="s">
+      <c r="M41" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="N41" s="33" t="s">
+      <c r="N41" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="O41" s="33" t="s">
+      <c r="O41" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="P41" s="33" t="s">
+      <c r="P41" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="Q41" s="33" t="s">
+      <c r="Q41" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="12:17" ht="18">
-      <c r="L42" s="33" t="s">
+    <row r="42" spans="12:17" ht="17.399999999999999">
+      <c r="L42" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="M42" s="34" t="s">
+      <c r="M42" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="N42" s="33" t="s">
+      <c r="N42" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="O42" s="33" t="s">
+      <c r="O42" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="P42" s="33" t="s">
+      <c r="P42" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="Q42" s="33" t="s">
+      <c r="Q42" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="12:17" ht="18">
-      <c r="L43" s="33" t="s">
+    <row r="43" spans="12:17" ht="17.399999999999999">
+      <c r="L43" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="M43" s="34" t="s">
+      <c r="M43" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="N43" s="33" t="s">
+      <c r="N43" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="O43" s="33" t="s">
+      <c r="O43" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="P43" s="33" t="s">
+      <c r="P43" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="Q43" s="33" t="s">
+      <c r="Q43" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="12:17" ht="18">
-      <c r="L44" s="33" t="s">
+    <row r="44" spans="12:17" ht="17.399999999999999">
+      <c r="L44" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="M44" s="34" t="s">
+      <c r="M44" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="N44" s="33" t="s">
+      <c r="N44" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="O44" s="33" t="s">
+      <c r="O44" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="P44" s="33" t="s">
+      <c r="P44" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="Q44" s="33" t="s">
+      <c r="Q44" s="29" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="12:17" ht="18">
-      <c r="L45" s="33" t="s">
+    <row r="45" spans="12:17" ht="17.399999999999999">
+      <c r="L45" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="M45" s="34" t="s">
+      <c r="M45" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="N45" s="33" t="s">
+      <c r="N45" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="O45" s="33" t="s">
+      <c r="O45" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="P45" s="33" t="s">
+      <c r="P45" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="Q45" s="33" t="s">
+      <c r="Q45" s="29" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="12:17" ht="18">
-      <c r="L46" s="33" t="s">
+    <row r="46" spans="12:17" ht="17.399999999999999">
+      <c r="L46" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="M46" s="34" t="s">
+      <c r="M46" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="N46" s="33" t="s">
+      <c r="N46" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="O46" s="33" t="s">
+      <c r="O46" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="P46" s="33" t="s">
+      <c r="P46" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="Q46" s="33" t="s">
+      <c r="Q46" s="29" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="3" master=""/>
   <rangeList sheetStid="7" master=""/>
 </allowEditUser>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
 </sheetInterline>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -50578,13 +58289,6 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -50592,8 +58296,12 @@
 </settings>
 </file>
 
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -50602,7 +58310,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -50611,7 +58319,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -50629,7 +58337,7 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -50638,7 +58346,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/java pic.xlsx
+++ b/java pic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\blog\limingxie-blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1CFAA7-4BB6-46C8-B847-58E90D77062D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDDA76E-8194-4570-A9AF-2A5EF826538C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="java_stack" sheetId="19" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="test" sheetId="32" r:id="rId8"/>
     <sheet name="mysql" sheetId="33" r:id="rId9"/>
     <sheet name="tree" sheetId="34" r:id="rId10"/>
+    <sheet name="linked_list" sheetId="35" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -861,7 +862,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -970,6 +971,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9425,6 +9432,5286 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>125640</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C6997A-9A9B-4D2E-B065-4757A0A168A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="421640"/>
+          <a:ext cx="720000" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>97154</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>39914</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{771C5161-C4E0-41E4-90C0-03967CAAF731}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="356234" y="421640"/>
+          <a:ext cx="720000" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>67944</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>10704</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C13E4B6-AFEF-4ED0-B116-A561B35A7135}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2658744" y="421640"/>
+          <a:ext cx="720000" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>212089</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>154849</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11C771F0-8C78-4AF7-B430-AE0DE2CA407D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1507489" y="421640"/>
+          <a:ext cx="720000" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>154849</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>52070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>67944</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>52070</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直线箭头连接符 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A5D887D-EE2F-4C48-8E99-569A47A71684}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2227489" y="577850"/>
+          <a:ext cx="431255" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>39914</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>52070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>212089</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>52070</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直线箭头连接符 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12DE5931-2E6F-4CE0-B33F-595EE7560B90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1076234" y="577850"/>
+          <a:ext cx="431255" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>10704</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>52070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>52070</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直线箭头连接符 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7980B46D-8A67-4FE5-9C89-70B83B9067A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3378744" y="577850"/>
+          <a:ext cx="431256" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="矩形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0BEBCD0-DDB0-4476-B131-84C6D6DAED1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3802380" y="1640840"/>
+          <a:ext cx="502920" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>89534</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>74294</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="矩形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4E2D9B-86DD-4899-8680-A8835858B8C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="348614" y="1640840"/>
+          <a:ext cx="502920" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60324</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>45084</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="矩形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F10B4391-DC8E-46D4-ACBD-C3883692911D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2651124" y="1640840"/>
+          <a:ext cx="502920" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>204469</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>189229</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="矩形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{652F6E7F-7BA5-427C-BC74-28032D078B18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1499869" y="1640840"/>
+          <a:ext cx="502920" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>74294</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="矩形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F19426DD-AE20-41C6-A453-3AA59F84DC58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="851534" y="1640840"/>
+          <a:ext cx="207646" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="矩形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C20BF68A-8AC1-45C4-AD33-019801328712}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1994534" y="1640840"/>
+          <a:ext cx="207646" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>43814</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="矩形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{263DE9C4-717E-42AF-949B-24BCE46890FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3152774" y="1640840"/>
+          <a:ext cx="207646" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>158114</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="矩形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59F8E0DF-522C-4A47-9C7F-2C4F9741B774}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4303394" y="1640840"/>
+          <a:ext cx="207646" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60324</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直线箭头连接符 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4430E4B6-CDCE-4A78-8C00-972E2D16A536}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="39" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2103120" y="1797050"/>
+          <a:ext cx="548004" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>204469</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直线箭头连接符 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{006813BC-8EB8-489F-9B07-06A1E22A0882}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="40" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="960120" y="1797050"/>
+          <a:ext cx="539749" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直线箭头连接符 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{125370A8-7EDD-4342-91CE-27A741914603}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="37" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3261360" y="1797050"/>
+          <a:ext cx="541020" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="矩形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82B8A540-462A-4C60-AB72-90B4B7A4807D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3802380" y="1640840"/>
+          <a:ext cx="502920" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>89534</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>74294</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="矩形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BB6D0E2-32DE-4323-8478-956AE01689B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="348614" y="1640840"/>
+          <a:ext cx="502920" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>60324</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>45084</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="矩形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60102793-FF61-4E2E-A3AD-A67AA72B7AED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2651124" y="1640840"/>
+          <a:ext cx="502920" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>204469</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>189229</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="矩形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DF2A29B-D98B-4A0C-80CB-DCDD1A2E2216}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1499869" y="1640840"/>
+          <a:ext cx="502920" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>74294</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="矩形 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6DB2B97-05A7-4E0E-BE6A-CDD60AE85865}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="851534" y="1640840"/>
+          <a:ext cx="207646" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="矩形 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F26C4F8D-ADD0-49A4-9AF7-50A5F3C5AE3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1994534" y="1640840"/>
+          <a:ext cx="207646" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>43814</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="矩形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4CA2F9D-2A7A-49BF-B16C-AFC4F2975666}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3152774" y="1640840"/>
+          <a:ext cx="207646" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>158114</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="矩形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{652CA1F5-4643-49A0-9168-A7A881F6A43B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5080634" y="3919220"/>
+          <a:ext cx="207646" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="矩形 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D70659E5-9C27-442D-8BEB-C22B199666D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="920114" y="3919220"/>
+          <a:ext cx="207646" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="矩形 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86DE5719-2B68-4EA0-8B63-8DCE8634D380}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2070734" y="3919220"/>
+          <a:ext cx="207646" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>120014</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="矩形 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DFA0B87-061C-4A6E-9359-F9D372B1E579}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3228974" y="3919220"/>
+          <a:ext cx="207646" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>226694</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="矩形 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6EF23D7-C186-47BE-93D9-BC00F9F6FAE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4371974" y="3919220"/>
+          <a:ext cx="207646" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>166370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>250824</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>166370</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直线箭头连接符 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F469D248-1EAF-457D-A9AD-3EB37B2DEF05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2910840" y="4022090"/>
+          <a:ext cx="448944" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>166370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>166370</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="直线箭头连接符 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4D36781-C27B-4B17-957E-E633D8365FC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1767840" y="4022090"/>
+          <a:ext cx="441960" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>166370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>166370</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直线箭头连接符 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{213B4AE5-C8AE-4F37-ABB4-657F577C5B38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4069080" y="4022090"/>
+          <a:ext cx="441960" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="直线箭头连接符 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA2D153D-A901-44D6-9A73-D66ACF767555}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1714500" y="4136390"/>
+          <a:ext cx="441960" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="直线箭头连接符 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F693BB6-9175-4675-A407-638C74FB5CEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4015740" y="4136390"/>
+          <a:ext cx="441960" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="直线箭头连接符 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E797C2AB-6890-413A-8902-9C6BBF868E17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2857500" y="4136390"/>
+          <a:ext cx="457200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>170180</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="矩形 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A61EAC86-522E-4D46-9BC6-0FE921D82631}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1386840" y="4940300"/>
+          <a:ext cx="502920" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>120014</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>17780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="矩形 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28272343-C3DB-410B-B6E1-BA8D0815C687}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2451734" y="4262120"/>
+          <a:ext cx="502920" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>106044</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>90804</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="矩形 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49613A75-DF85-4739-8143-748316188837}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2437764" y="5679440"/>
+          <a:ext cx="502920" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>90169</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>74929</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="矩形 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FEDF060-0A64-48DD-B77C-EC8D4479DF01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3458209" y="4978400"/>
+          <a:ext cx="502920" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>17780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="矩形 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6492BE15-C4B5-4366-AD9B-554EABAA809E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2954654" y="4262120"/>
+          <a:ext cx="207646" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="矩形 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1A0FE53-97D3-4038-9B1D-9178739FCFFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3952874" y="4978400"/>
+          <a:ext cx="207646" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>89534</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="矩形 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D1F206-FCC6-446E-89F7-2566A1506F3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2939414" y="5679440"/>
+          <a:ext cx="207646" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>170180</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="矩形 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABACA3BB-5C87-41EE-AF38-4CF8A9EF6DBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1880234" y="4940300"/>
+          <a:ext cx="207646" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>36830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="139" name="直线箭头连接符 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8C3BAD5-F586-4857-BF45-634AAE4BC50D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="96" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3162300" y="4418330"/>
+          <a:ext cx="739140" cy="549910"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>52070</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="141" name="直线箭头连接符 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5E70241-D8AA-4951-A62D-C7413823C123}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="98" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3147060" y="5303520"/>
+          <a:ext cx="746760" cy="532130"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>170180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>106044</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>52070</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="145" name="直线箭头连接符 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5350B2CF-D50E-434F-B9A4-661954243450}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="94" idx="1"/>
+          <a:endCxn id="92" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1638300" y="5252720"/>
+          <a:ext cx="799464" cy="582930"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>36830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>120014</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="148" name="直线箭头连接符 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{343811FA-FE83-40EB-A668-75C1C14A96D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="92" idx="0"/>
+          <a:endCxn id="93" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1638300" y="4418330"/>
+          <a:ext cx="813434" cy="521970"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>125640</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="矩形 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AEBDCD8-0D65-4045-8A95-209686EFAAB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="421640"/>
+          <a:ext cx="720000" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>97154</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>39914</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="160" name="矩形 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA91D3B9-5722-4DCF-B76C-72516CB5A8F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="356234" y="421640"/>
+          <a:ext cx="720000" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>67944</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>10704</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="矩形 160">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26B025DD-FD9E-4660-B430-F10FB74EA3FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2658744" y="421640"/>
+          <a:ext cx="720000" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>212089</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>154849</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="162" name="矩形 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3497C11D-AACC-424F-9EAF-6CD7BA3D6192}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1507489" y="421640"/>
+          <a:ext cx="720000" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>154849</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>52070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>67944</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>52070</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="163" name="直线箭头连接符 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C671331-5B59-461E-8C27-46B5D00FA690}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="162" idx="3"/>
+          <a:endCxn id="161" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2227489" y="577850"/>
+          <a:ext cx="431255" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>39914</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>52070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>212089</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>52070</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="164" name="直线箭头连接符 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE3A989A-0A4A-498F-8BEC-09A45B984640}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="160" idx="3"/>
+          <a:endCxn id="162" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1076234" y="577850"/>
+          <a:ext cx="431255" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>10704</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>52070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>52070</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="165" name="直线箭头连接符 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06AC3383-8945-4700-AE62-944B1AB170AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="161" idx="3"/>
+          <a:endCxn id="159" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3378744" y="577850"/>
+          <a:ext cx="431256" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>201840</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="166" name="矩形 165">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{052CF615-5E26-402D-8223-410745F10D91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2072640" y="1775460"/>
+          <a:ext cx="720000" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>53929</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="170" name="直线箭头连接符 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AAC6238-4FC2-4217-A82D-B8BD251EF106}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="162" idx="2"/>
+          <a:endCxn id="166" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1867489" y="1435100"/>
+          <a:ext cx="205151" cy="496570"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>201840</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>168864</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="173" name="直线箭头连接符 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{437F637C-8C65-48DE-B956-C8BE23D4D8F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="166" idx="3"/>
+          <a:endCxn id="161" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2792640" y="1435100"/>
+          <a:ext cx="226104" cy="496570"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="311817" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="176" name="文本框 175">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E1B2E14-6EA4-40CC-BB09-A8CB227E5A1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="1104900"/>
+          <a:ext cx="311817" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>X</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>239940</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="182" name="矩形 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1123D364-B856-4C2A-98A1-D31BDA47A308}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4960620" y="2524760"/>
+          <a:ext cx="720000" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>97154</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>39914</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="183" name="矩形 182">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0AF70F-CDB2-4B0C-A404-C6623C2F9A27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="356234" y="2524760"/>
+          <a:ext cx="720000" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>182404</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>125164</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="184" name="矩形 183">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95AEAB72-6C37-46FC-A6F8-8A92334C58F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3809524" y="2524760"/>
+          <a:ext cx="720000" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>211930</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>154690</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="185" name="矩形 184">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39D3924A-966A-4624-BDC3-0D377E77D3CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1507330" y="2524760"/>
+          <a:ext cx="720000" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>39914</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>52070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>211930</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>52070</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="187" name="直线箭头连接符 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B83CF79-B118-47F8-9603-7381B82C6FFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="183" idx="3"/>
+          <a:endCxn id="185" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1076234" y="2680970"/>
+          <a:ext cx="431096" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>125164</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>52070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>52070</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="188" name="直线箭头连接符 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2BFB480-E3E6-4BA8-9FCC-94A9E9FD59B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="184" idx="3"/>
+          <a:endCxn id="182" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4529524" y="2680970"/>
+          <a:ext cx="431096" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>67627</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>10387</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="189" name="矩形 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BDBBB0F-77C1-4823-9434-9FC7E36F82DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2658427" y="2524760"/>
+          <a:ext cx="720000" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:ea typeface="Apple Color Emoji" pitchFamily="2" charset="0"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>154690</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>52070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>67627</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>52070</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="190" name="直线箭头连接符 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AA5440F-216B-458B-B194-9B19CD723650}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="185" idx="3"/>
+          <a:endCxn id="189" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2227330" y="2680970"/>
+          <a:ext cx="431097" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>10387</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>52070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>182404</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>52070</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="191" name="直线箭头连接符 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77E2A3B2-4C4D-4D53-8C36-A8327F56F8F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="189" idx="3"/>
+          <a:endCxn id="184" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3378427" y="2680970"/>
+          <a:ext cx="431097" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="311817" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="197" name="文本框 196">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91CB7E0F-02F0-4040-AF31-72BE9BA19929}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2263140" y="2499360"/>
+          <a:ext cx="311817" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>X</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>60120</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>30594</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>39370</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="199" name="连接符: 肘形 198">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B374520-EC34-4F12-B6DF-674CCD897595}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="185" idx="2"/>
+          <a:endCxn id="184" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3018427" y="1686083"/>
+          <a:ext cx="12700" cy="2302194"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1800000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="288669" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="200" name="文本框 199">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00A317EC-F812-481D-BE61-1B38E8617CB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1188720" y="9898380"/>
+          <a:ext cx="288669" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>37655</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>76086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="202" name="直接箭头连接符 201">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{151A0213-2FC0-44D9-B932-ECF5B7588C61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="200" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333055" y="10241166"/>
+          <a:ext cx="76645" cy="228714"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="222" name="箭头: 下弧形 221">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F607D925-CE64-44A3-B966-5CA95A4D3926}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1691640" y="10820400"/>
+          <a:ext cx="236220" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedUpArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="223" name="箭头: 下弧形 222">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C5D5F9A-5613-4090-8B55-BD91D0F39341}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1432560" y="10820400"/>
+          <a:ext cx="236220" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedUpArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -56697,8 +61984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5FFFF2-FFC0-F544-AF36-4DC147768BF9}">
   <dimension ref="C1:Z52"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8"/>
@@ -56999,69 +62286,14 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644E5244-ABF6-4DFC-B5A9-35FCAD5CDE5A}">
-  <dimension ref="A3:A62"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="AE30" sqref="AE30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="13.8"/>
-  <sheetData>
-    <row r="3" customFormat="1"/>
-    <row r="4" customFormat="1"/>
-    <row r="5" customFormat="1"/>
-    <row r="6" customFormat="1"/>
-    <row r="7" customFormat="1"/>
-    <row r="8" customFormat="1"/>
-    <row r="9" customFormat="1"/>
-    <row r="10" customFormat="1"/>
-    <row r="11" customFormat="1"/>
-    <row r="12" customFormat="1"/>
-    <row r="13" customFormat="1"/>
-    <row r="14" customFormat="1"/>
-    <row r="15" customFormat="1"/>
-    <row r="16" customFormat="1"/>
-    <row r="17" customFormat="1"/>
-    <row r="18" customFormat="1"/>
-    <row r="19" customFormat="1"/>
-    <row r="20" customFormat="1"/>
-    <row r="24" customFormat="1"/>
-    <row r="25" customFormat="1"/>
-    <row r="26" customFormat="1"/>
-    <row r="27" customFormat="1"/>
-    <row r="28" customFormat="1"/>
-    <row r="29" customFormat="1"/>
-    <row r="30" customFormat="1"/>
-    <row r="31" customFormat="1"/>
-    <row r="32" customFormat="1"/>
-    <row r="33" customFormat="1"/>
-    <row r="34" customFormat="1"/>
-    <row r="35" customFormat="1"/>
-    <row r="36" customFormat="1"/>
-    <row r="37" customFormat="1"/>
-    <row r="38" customFormat="1"/>
-    <row r="39" customFormat="1"/>
-    <row r="40" customFormat="1"/>
-    <row r="41" customFormat="1"/>
-    <row r="45" customFormat="1"/>
-    <row r="46" customFormat="1"/>
-    <row r="47" customFormat="1"/>
-    <row r="48" customFormat="1"/>
-    <row r="49" customFormat="1"/>
-    <row r="50" customFormat="1"/>
-    <row r="51" customFormat="1"/>
-    <row r="52" customFormat="1"/>
-    <row r="53" customFormat="1"/>
-    <row r="54" customFormat="1"/>
-    <row r="55" customFormat="1"/>
-    <row r="56" customFormat="1"/>
-    <row r="57" customFormat="1"/>
-    <row r="58" customFormat="1"/>
-    <row r="59" customFormat="1"/>
-    <row r="60" customFormat="1"/>
-    <row r="61" customFormat="1"/>
-    <row r="62" customFormat="1"/>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -57069,12 +62301,65 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7629BB86-B6CB-4369-BA7C-67998FF4CC0A}">
+  <dimension ref="C60:I64"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="60" spans="3:9" ht="9" customHeight="1"/>
+    <row r="61" spans="3:9" ht="26.4" customHeight="1">
+      <c r="C61" s="3"/>
+      <c r="D61" s="36">
+        <v>2</v>
+      </c>
+      <c r="E61" s="36">
+        <v>3</v>
+      </c>
+      <c r="F61" s="36">
+        <v>7</v>
+      </c>
+      <c r="G61" s="36">
+        <v>9</v>
+      </c>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+    </row>
+    <row r="64" spans="3:9" ht="24.6" customHeight="1">
+      <c r="D64" s="36">
+        <v>2</v>
+      </c>
+      <c r="E64" s="36">
+        <v>3</v>
+      </c>
+      <c r="F64" s="36">
+        <v>5</v>
+      </c>
+      <c r="G64" s="36">
+        <v>7</v>
+      </c>
+      <c r="H64" s="36">
+        <v>9</v>
+      </c>
+      <c r="I64" s="37"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BAF9AF-ACC1-EC41-890D-538B5AD38D0F}">
   <dimension ref="H17:AN58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67:N85"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="Y85" sqref="Y85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="13.8"/>
@@ -58262,33 +63547,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="3" master=""/>
   <rangeList sheetStid="7" master=""/>
 </allowEditUser>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -58296,11 +63572,38 @@
 </settings>
 </file>
 
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -58309,8 +63612,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -58318,16 +63621,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -58336,17 +63630,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
